--- a/муровка/вартість_квадрату_добудови.xlsx
+++ b/муровка/вартість_квадрату_добудови.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="10050" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="підїзд1" sheetId="1" r:id="rId1"/>
@@ -1471,86 +1471,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1588,6 +1510,84 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1892,7 +1892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O76"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1907,17 +1907,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="112" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="2:15" ht="65.25" thickBot="1">
       <c r="B2" s="1" t="s">
@@ -1955,10 +1955,10 @@
       <c r="O2" s="29"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B3" s="101">
-        <v>1</v>
-      </c>
-      <c r="C3" s="104">
+      <c r="B3" s="115">
+        <v>1</v>
+      </c>
+      <c r="C3" s="118">
         <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -1988,8 +1988,8 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B4" s="102"/>
-      <c r="C4" s="105"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
@@ -2011,8 +2011,8 @@
       <c r="J4" s="34"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B5" s="102"/>
-      <c r="C5" s="105"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="119"/>
       <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
@@ -2034,8 +2034,8 @@
       <c r="J5" s="39"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B6" s="102"/>
-      <c r="C6" s="105"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="119"/>
       <c r="D6" s="14" t="s">
         <v>11</v>
       </c>
@@ -2063,8 +2063,8 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B7" s="102"/>
-      <c r="C7" s="106"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2086,8 +2086,8 @@
       <c r="J7" s="34"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B8" s="102"/>
-      <c r="C8" s="104">
+      <c r="B8" s="116"/>
+      <c r="C8" s="118">
         <v>3</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -2117,8 +2117,8 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B9" s="102"/>
-      <c r="C9" s="105"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="14" t="s">
         <v>248</v>
       </c>
@@ -2146,8 +2146,8 @@
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B10" s="102"/>
-      <c r="C10" s="105"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="119"/>
       <c r="D10" s="14" t="s">
         <v>14</v>
       </c>
@@ -2175,8 +2175,8 @@
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B11" s="102"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="119"/>
       <c r="D11" s="10" t="s">
         <v>15</v>
       </c>
@@ -2204,8 +2204,8 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B12" s="102"/>
-      <c r="C12" s="106"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="14" t="s">
         <v>16</v>
       </c>
@@ -2235,8 +2235,8 @@
       </c>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B13" s="102"/>
-      <c r="C13" s="107">
+      <c r="B13" s="116"/>
+      <c r="C13" s="121">
         <v>4</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -2266,8 +2266,8 @@
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B14" s="102"/>
-      <c r="C14" s="108"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="122"/>
       <c r="D14" s="32" t="s">
         <v>18</v>
       </c>
@@ -2295,8 +2295,8 @@
       </c>
     </row>
     <row r="15" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B15" s="102"/>
-      <c r="C15" s="108"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="9" t="s">
         <v>19</v>
       </c>
@@ -2322,8 +2322,8 @@
       </c>
     </row>
     <row r="16" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B16" s="102"/>
-      <c r="C16" s="108"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="14" t="s">
         <v>20</v>
       </c>
@@ -2356,8 +2356,8 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="102"/>
-      <c r="C17" s="109"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="14" t="s">
         <v>21</v>
       </c>
@@ -2387,8 +2387,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="102"/>
-      <c r="C18" s="107">
+      <c r="B18" s="116"/>
+      <c r="C18" s="121">
         <v>5</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -2418,8 +2418,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B19" s="102"/>
-      <c r="C19" s="108"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="122"/>
       <c r="D19" s="14" t="s">
         <v>14</v>
       </c>
@@ -2447,8 +2447,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="102"/>
-      <c r="C20" s="108"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="122"/>
       <c r="D20" s="14" t="s">
         <v>23</v>
       </c>
@@ -2476,8 +2476,8 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="102"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="122"/>
       <c r="D21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2503,8 +2503,8 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="102"/>
-      <c r="C22" s="109"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="14" t="s">
         <v>25</v>
       </c>
@@ -2532,8 +2532,8 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="102"/>
-      <c r="C23" s="107">
+      <c r="B23" s="116"/>
+      <c r="C23" s="121">
         <v>6</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -2565,8 +2565,8 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="102"/>
-      <c r="C24" s="108"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="122"/>
       <c r="D24" s="14" t="s">
         <v>27</v>
       </c>
@@ -2594,8 +2594,8 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="102"/>
-      <c r="C25" s="108"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="122"/>
       <c r="D25" s="14" t="s">
         <v>28</v>
       </c>
@@ -2623,8 +2623,8 @@
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="102"/>
-      <c r="C26" s="108"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="122"/>
       <c r="D26" s="14" t="s">
         <v>29</v>
       </c>
@@ -2652,8 +2652,8 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="102"/>
-      <c r="C27" s="109"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="123"/>
       <c r="D27" s="14" t="s">
         <v>30</v>
       </c>
@@ -2683,8 +2683,8 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="102"/>
-      <c r="C28" s="107">
+      <c r="B28" s="116"/>
+      <c r="C28" s="121">
         <v>7</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -2714,8 +2714,8 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B29" s="102"/>
-      <c r="C29" s="108"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="122"/>
       <c r="D29" s="14" t="s">
         <v>32</v>
       </c>
@@ -2743,8 +2743,8 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B30" s="102"/>
-      <c r="C30" s="108"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="122"/>
       <c r="D30" s="14" t="s">
         <v>33</v>
       </c>
@@ -2772,8 +2772,8 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B31" s="102"/>
-      <c r="C31" s="108"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="122"/>
       <c r="D31" s="14" t="s">
         <v>34</v>
       </c>
@@ -2801,8 +2801,8 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="24.75" thickBot="1">
-      <c r="B32" s="102"/>
-      <c r="C32" s="109"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="123"/>
       <c r="D32" s="14" t="s">
         <v>35</v>
       </c>
@@ -2832,8 +2832,8 @@
       </c>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B33" s="102"/>
-      <c r="C33" s="107">
+      <c r="B33" s="116"/>
+      <c r="C33" s="121">
         <v>8</v>
       </c>
       <c r="D33" s="14" t="s">
@@ -2863,8 +2863,8 @@
       </c>
     </row>
     <row r="34" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B34" s="102"/>
-      <c r="C34" s="108"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="122"/>
       <c r="D34" s="14" t="s">
         <v>37</v>
       </c>
@@ -2892,8 +2892,8 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B35" s="102"/>
-      <c r="C35" s="108"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="122"/>
       <c r="D35" s="3" t="s">
         <v>19</v>
       </c>
@@ -2919,8 +2919,8 @@
       </c>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B36" s="102"/>
-      <c r="C36" s="108"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="122"/>
       <c r="D36" s="14" t="s">
         <v>38</v>
       </c>
@@ -2948,8 +2948,8 @@
       </c>
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B37" s="102"/>
-      <c r="C37" s="109"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="123"/>
       <c r="D37" s="14" t="s">
         <v>39</v>
       </c>
@@ -2977,8 +2977,8 @@
       </c>
     </row>
     <row r="38" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B38" s="102"/>
-      <c r="C38" s="107">
+      <c r="B38" s="116"/>
+      <c r="C38" s="121">
         <v>9</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -3008,8 +3008,8 @@
       </c>
     </row>
     <row r="39" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B39" s="102"/>
-      <c r="C39" s="108"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="122"/>
       <c r="D39" s="14" t="s">
         <v>41</v>
       </c>
@@ -3037,8 +3037,8 @@
       </c>
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B40" s="102"/>
-      <c r="C40" s="108"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="122"/>
       <c r="D40" s="14" t="s">
         <v>42</v>
       </c>
@@ -3066,8 +3066,8 @@
       </c>
     </row>
     <row r="41" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B41" s="102"/>
-      <c r="C41" s="108"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="122"/>
       <c r="D41" s="37" t="s">
         <v>43</v>
       </c>
@@ -3097,8 +3097,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B42" s="102"/>
-      <c r="C42" s="109"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="123"/>
       <c r="D42" s="14" t="s">
         <v>44</v>
       </c>
@@ -3128,8 +3128,8 @@
       </c>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B43" s="102"/>
-      <c r="C43" s="107">
+      <c r="B43" s="116"/>
+      <c r="C43" s="121">
         <v>10</v>
       </c>
       <c r="D43" s="14" t="s">
@@ -3162,8 +3162,8 @@
       </c>
     </row>
     <row r="44" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B44" s="102"/>
-      <c r="C44" s="108"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="122"/>
       <c r="D44" s="14" t="s">
         <v>45</v>
       </c>
@@ -3194,9 +3194,9 @@
       </c>
     </row>
     <row r="45" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B45" s="102"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="99" t="s">
+      <c r="B45" s="116"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="113" t="s">
         <v>46</v>
       </c>
       <c r="E45" s="15">
@@ -3226,9 +3226,9 @@
       </c>
     </row>
     <row r="46" spans="2:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B46" s="102"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="100"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="114"/>
       <c r="E46" s="15">
         <v>65.040000000000006</v>
       </c>
@@ -3257,8 +3257,8 @@
       <c r="M46" s="82"/>
     </row>
     <row r="47" spans="2:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B47" s="103"/>
-      <c r="C47" s="109"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="123"/>
       <c r="D47" s="14" t="s">
         <v>47</v>
       </c>
@@ -3585,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -3629,10 +3629,10 @@
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="112">
+      <c r="B2" s="126">
         <v>2</v>
       </c>
-      <c r="C2" s="110">
+      <c r="C2" s="124">
         <v>2</v>
       </c>
       <c r="D2" s="44" t="s">
@@ -3660,8 +3660,8 @@
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="112"/>
-      <c r="C3" s="110"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="124"/>
       <c r="D3" s="47" t="s">
         <v>52</v>
       </c>
@@ -3689,8 +3689,8 @@
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="112"/>
-      <c r="C4" s="110"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="47" t="s">
         <v>69</v>
       </c>
@@ -3720,8 +3720,8 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="112"/>
-      <c r="C5" s="110"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="124"/>
       <c r="D5" s="47" t="s">
         <v>70</v>
       </c>
@@ -3749,8 +3749,8 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="112"/>
-      <c r="C6" s="110">
+      <c r="B6" s="126"/>
+      <c r="C6" s="124">
         <v>3</v>
       </c>
       <c r="D6" s="47" t="s">
@@ -3780,8 +3780,8 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="112"/>
-      <c r="C7" s="110"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="124"/>
       <c r="D7" s="50" t="s">
         <v>55</v>
       </c>
@@ -3807,8 +3807,8 @@
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="112"/>
-      <c r="C8" s="110"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="47" t="s">
         <v>71</v>
       </c>
@@ -3836,8 +3836,8 @@
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="112"/>
-      <c r="C9" s="110"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="124"/>
       <c r="D9" s="47" t="s">
         <v>72</v>
       </c>
@@ -3867,8 +3867,8 @@
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="112"/>
-      <c r="C10" s="110">
+      <c r="B10" s="126"/>
+      <c r="C10" s="124">
         <v>4</v>
       </c>
       <c r="D10" s="47" t="s">
@@ -3898,8 +3898,8 @@
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="112"/>
-      <c r="C11" s="110"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="47" t="s">
         <v>74</v>
       </c>
@@ -3927,8 +3927,8 @@
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="112"/>
-      <c r="C12" s="110"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="47" t="s">
         <v>75</v>
       </c>
@@ -3958,8 +3958,8 @@
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="112"/>
-      <c r="C13" s="110"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="124"/>
       <c r="D13" s="53" t="s">
         <v>76</v>
       </c>
@@ -3987,8 +3987,8 @@
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="112"/>
-      <c r="C14" s="110">
+      <c r="B14" s="126"/>
+      <c r="C14" s="124">
         <v>5</v>
       </c>
       <c r="D14" s="47" t="s">
@@ -4018,8 +4018,8 @@
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="112"/>
-      <c r="C15" s="110"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="47" t="s">
         <v>78</v>
       </c>
@@ -4047,8 +4047,8 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="112"/>
-      <c r="C16" s="110"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="47" t="s">
         <v>79</v>
       </c>
@@ -4076,8 +4076,8 @@
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="112"/>
-      <c r="C17" s="110"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="124"/>
       <c r="D17" s="50" t="s">
         <v>80</v>
       </c>
@@ -4105,8 +4105,8 @@
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="112"/>
-      <c r="C18" s="110">
+      <c r="B18" s="126"/>
+      <c r="C18" s="124">
         <v>6</v>
       </c>
       <c r="D18" s="47" t="s">
@@ -4136,8 +4136,8 @@
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="112"/>
-      <c r="C19" s="110"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="124"/>
       <c r="D19" s="47" t="s">
         <v>56</v>
       </c>
@@ -4165,8 +4165,8 @@
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="112"/>
-      <c r="C20" s="110"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="124"/>
       <c r="D20" s="47" t="s">
         <v>57</v>
       </c>
@@ -4194,8 +4194,8 @@
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="112"/>
-      <c r="C21" s="110"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="124"/>
       <c r="D21" s="47" t="s">
         <v>58</v>
       </c>
@@ -4225,8 +4225,8 @@
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="112"/>
-      <c r="C22" s="110">
+      <c r="B22" s="126"/>
+      <c r="C22" s="124">
         <v>7</v>
       </c>
       <c r="D22" s="47" t="s">
@@ -4256,8 +4256,8 @@
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="112"/>
-      <c r="C23" s="110"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="47" t="s">
         <v>82</v>
       </c>
@@ -4287,8 +4287,8 @@
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="112"/>
-      <c r="C24" s="110"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="124"/>
       <c r="D24" s="47" t="s">
         <v>83</v>
       </c>
@@ -4318,8 +4318,8 @@
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="112"/>
-      <c r="C25" s="110"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="124"/>
       <c r="D25" s="47" t="s">
         <v>84</v>
       </c>
@@ -4347,8 +4347,8 @@
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="112"/>
-      <c r="C26" s="110">
+      <c r="B26" s="126"/>
+      <c r="C26" s="124">
         <v>8</v>
       </c>
       <c r="D26" s="50" t="s">
@@ -4376,8 +4376,8 @@
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="112"/>
-      <c r="C27" s="110"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="124"/>
       <c r="D27" s="47" t="s">
         <v>86</v>
       </c>
@@ -4405,8 +4405,8 @@
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="112"/>
-      <c r="C28" s="110"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="124"/>
       <c r="D28" s="47" t="s">
         <v>87</v>
       </c>
@@ -4434,8 +4434,8 @@
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="112"/>
-      <c r="C29" s="110"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="124"/>
       <c r="D29" s="47" t="s">
         <v>88</v>
       </c>
@@ -4463,8 +4463,8 @@
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="112"/>
-      <c r="C30" s="110">
+      <c r="B30" s="126"/>
+      <c r="C30" s="124">
         <v>9</v>
       </c>
       <c r="D30" s="47" t="s">
@@ -4494,8 +4494,8 @@
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="112"/>
-      <c r="C31" s="110"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="124"/>
       <c r="D31" s="47" t="s">
         <v>89</v>
       </c>
@@ -4523,8 +4523,8 @@
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="112"/>
-      <c r="C32" s="110"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="124"/>
       <c r="D32" s="47" t="s">
         <v>90</v>
       </c>
@@ -4552,8 +4552,8 @@
       </c>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="112"/>
-      <c r="C33" s="110"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="124"/>
       <c r="D33" s="47" t="s">
         <v>91</v>
       </c>
@@ -4581,8 +4581,8 @@
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="112"/>
-      <c r="C34" s="110">
+      <c r="B34" s="126"/>
+      <c r="C34" s="124">
         <v>10</v>
       </c>
       <c r="D34" s="47" t="s">
@@ -4614,8 +4614,8 @@
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="112"/>
-      <c r="C35" s="110"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="124"/>
       <c r="D35" s="50" t="s">
         <v>92</v>
       </c>
@@ -4641,8 +4641,8 @@
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="112"/>
-      <c r="C36" s="110"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="124"/>
       <c r="D36" s="50" t="s">
         <v>93</v>
       </c>
@@ -4668,8 +4668,8 @@
       </c>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="112"/>
-      <c r="C37" s="110"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="124"/>
       <c r="D37" s="47" t="s">
         <v>94</v>
       </c>
@@ -4712,7 +4712,7 @@
       </c>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="111">
+      <c r="B40" s="125">
         <v>2</v>
       </c>
       <c r="C40" s="51">
@@ -4740,7 +4740,7 @@
       </c>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="111"/>
+      <c r="B41" s="125"/>
       <c r="C41" s="51">
         <v>2</v>
       </c>
@@ -4766,7 +4766,7 @@
       </c>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="111"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="51">
         <v>3</v>
       </c>
@@ -4792,7 +4792,7 @@
       </c>
     </row>
     <row r="43" spans="2:11" ht="64.5">
-      <c r="B43" s="111"/>
+      <c r="B43" s="125"/>
       <c r="C43" s="51">
         <v>4</v>
       </c>
@@ -4818,7 +4818,7 @@
       </c>
     </row>
     <row r="44" spans="2:11" ht="26.25">
-      <c r="B44" s="111"/>
+      <c r="B44" s="125"/>
       <c r="C44" s="51">
         <v>5</v>
       </c>
@@ -4844,7 +4844,7 @@
       </c>
     </row>
     <row r="45" spans="2:11" ht="26.25">
-      <c r="B45" s="111"/>
+      <c r="B45" s="125"/>
       <c r="C45" s="51">
         <v>6</v>
       </c>
@@ -4915,7 +4915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
@@ -4960,10 +4960,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75">
-      <c r="A3" s="114">
+      <c r="A3" s="128">
         <v>3</v>
       </c>
-      <c r="B3" s="115">
+      <c r="B3" s="129">
         <v>2</v>
       </c>
       <c r="C3" s="59" t="s">
@@ -4995,8 +4995,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75">
-      <c r="A4" s="114"/>
-      <c r="B4" s="115"/>
+      <c r="A4" s="128"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="59" t="s">
         <v>103</v>
       </c>
@@ -5024,8 +5024,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="59" t="s">
         <v>104</v>
       </c>
@@ -5053,13 +5053,13 @@
         <f t="shared" si="2"/>
         <v>-8.000000000174623E-2</v>
       </c>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
     </row>
     <row r="6" spans="1:14" ht="15.75">
-      <c r="A6" s="114"/>
-      <c r="B6" s="115"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="59" t="s">
         <v>105</v>
       </c>
@@ -5085,7 +5085,7 @@
         <f t="shared" si="2"/>
         <v>1227.8399999999965</v>
       </c>
-      <c r="K6" s="132" t="s">
+      <c r="K6" s="106" t="s">
         <v>275</v>
       </c>
       <c r="L6" s="86"/>
@@ -5093,8 +5093,8 @@
       <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:14" ht="15.75">
-      <c r="A7" s="114"/>
-      <c r="B7" s="115"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="59" t="s">
         <v>106</v>
       </c>
@@ -5128,8 +5128,8 @@
       <c r="N7" s="25"/>
     </row>
     <row r="8" spans="1:14" ht="15.75">
-      <c r="A8" s="114"/>
-      <c r="B8" s="115">
+      <c r="A8" s="128"/>
+      <c r="B8" s="129">
         <v>3</v>
       </c>
       <c r="C8" s="59" t="s">
@@ -5159,14 +5159,14 @@
         <f t="shared" si="2"/>
         <v>22.719999999999345</v>
       </c>
-      <c r="K8" s="132"/>
+      <c r="K8" s="106"/>
       <c r="L8" s="86"/>
       <c r="M8" s="86"/>
       <c r="N8" s="25"/>
     </row>
     <row r="9" spans="1:14" ht="15.75">
-      <c r="A9" s="114"/>
-      <c r="B9" s="115"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="63" t="s">
         <v>108</v>
       </c>
@@ -5196,8 +5196,8 @@
       <c r="N9" s="25"/>
     </row>
     <row r="10" spans="1:14" ht="15.75">
-      <c r="A10" s="114"/>
-      <c r="B10" s="115"/>
+      <c r="A10" s="128"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="59" t="s">
         <v>109</v>
       </c>
@@ -5225,14 +5225,14 @@
         <f t="shared" si="2"/>
         <v>-8.000000000174623E-2</v>
       </c>
-      <c r="K10" s="133"/>
+      <c r="K10" s="107"/>
       <c r="L10" s="86"/>
       <c r="M10" s="86"/>
       <c r="N10" s="25"/>
     </row>
     <row r="11" spans="1:14" ht="15.75">
-      <c r="A11" s="114"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="128"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="59" t="s">
         <v>54</v>
       </c>
@@ -5264,8 +5264,8 @@
       <c r="N11" s="25"/>
     </row>
     <row r="12" spans="1:14" ht="15.75">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="59" t="s">
         <v>110</v>
       </c>
@@ -5297,8 +5297,8 @@
       <c r="N12" s="25"/>
     </row>
     <row r="13" spans="1:14" ht="15.75">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115">
+      <c r="A13" s="128"/>
+      <c r="B13" s="129">
         <v>4</v>
       </c>
       <c r="C13" s="66" t="s">
@@ -5330,8 +5330,8 @@
       <c r="N13" s="25"/>
     </row>
     <row r="14" spans="1:14" ht="15.75">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="59" t="s">
         <v>112</v>
       </c>
@@ -5359,8 +5359,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="59" t="s">
         <v>113</v>
       </c>
@@ -5388,8 +5388,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75">
-      <c r="A16" s="114"/>
-      <c r="B16" s="115"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="59" t="s">
         <v>114</v>
       </c>
@@ -5417,8 +5417,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="114"/>
-      <c r="B17" s="115"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="66" t="s">
         <v>115</v>
       </c>
@@ -5444,8 +5444,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75">
-      <c r="A18" s="114"/>
-      <c r="B18" s="115">
+      <c r="A18" s="128"/>
+      <c r="B18" s="129">
         <v>5</v>
       </c>
       <c r="C18" s="66" t="s">
@@ -5473,8 +5473,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75">
-      <c r="A19" s="114"/>
-      <c r="B19" s="115"/>
+      <c r="A19" s="128"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="66" t="s">
         <v>116</v>
       </c>
@@ -5500,8 +5500,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75">
-      <c r="A20" s="114"/>
-      <c r="B20" s="115"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="59" t="s">
         <v>117</v>
       </c>
@@ -5529,8 +5529,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75">
-      <c r="A21" s="114"/>
-      <c r="B21" s="115"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="59" t="s">
         <v>118</v>
       </c>
@@ -5558,8 +5558,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75">
-      <c r="A22" s="114"/>
-      <c r="B22" s="115"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="59" t="s">
         <v>119</v>
       </c>
@@ -5589,8 +5589,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75">
-      <c r="A23" s="114"/>
-      <c r="B23" s="115">
+      <c r="A23" s="128"/>
+      <c r="B23" s="129">
         <v>6</v>
       </c>
       <c r="C23" s="59" t="s">
@@ -5622,8 +5622,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
+      <c r="A24" s="128"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="59" t="s">
         <v>121</v>
       </c>
@@ -5653,8 +5653,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115"/>
+      <c r="A25" s="128"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="59" t="s">
         <v>122</v>
       </c>
@@ -5682,8 +5682,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
+      <c r="A26" s="128"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="59" t="s">
         <v>123</v>
       </c>
@@ -5711,8 +5711,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="114"/>
-      <c r="B27" s="115"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="129"/>
       <c r="C27" s="59" t="s">
         <v>124</v>
       </c>
@@ -5740,8 +5740,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75">
-      <c r="A28" s="114"/>
-      <c r="B28" s="115">
+      <c r="A28" s="128"/>
+      <c r="B28" s="129">
         <v>7</v>
       </c>
       <c r="C28" s="59" t="s">
@@ -5771,8 +5771,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75">
-      <c r="A29" s="114"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="66" t="s">
         <v>126</v>
       </c>
@@ -5798,8 +5798,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75">
-      <c r="A30" s="114"/>
-      <c r="B30" s="115"/>
+      <c r="A30" s="128"/>
+      <c r="B30" s="129"/>
       <c r="C30" s="59" t="s">
         <v>127</v>
       </c>
@@ -5829,8 +5829,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="114"/>
-      <c r="B31" s="115"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="129"/>
       <c r="C31" s="59" t="s">
         <v>128</v>
       </c>
@@ -5858,8 +5858,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75">
-      <c r="A32" s="114"/>
-      <c r="B32" s="115"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="59" t="s">
         <v>129</v>
       </c>
@@ -5887,8 +5887,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115">
+      <c r="A33" s="128"/>
+      <c r="B33" s="129">
         <v>8</v>
       </c>
       <c r="C33" s="59" t="s">
@@ -5918,8 +5918,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75">
-      <c r="A34" s="114"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="128"/>
+      <c r="B34" s="129"/>
       <c r="C34" s="59" t="s">
         <v>48</v>
       </c>
@@ -5949,8 +5949,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75">
-      <c r="A35" s="114"/>
-      <c r="B35" s="115"/>
+      <c r="A35" s="128"/>
+      <c r="B35" s="129"/>
       <c r="C35" s="59" t="s">
         <v>131</v>
       </c>
@@ -5978,8 +5978,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75">
-      <c r="A36" s="114"/>
-      <c r="B36" s="115"/>
+      <c r="A36" s="128"/>
+      <c r="B36" s="129"/>
       <c r="C36" s="59" t="s">
         <v>132</v>
       </c>
@@ -6007,8 +6007,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75">
-      <c r="A37" s="114"/>
-      <c r="B37" s="115"/>
+      <c r="A37" s="128"/>
+      <c r="B37" s="129"/>
       <c r="C37" s="59" t="s">
         <v>133</v>
       </c>
@@ -6038,8 +6038,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75">
-      <c r="A38" s="114"/>
-      <c r="B38" s="115">
+      <c r="A38" s="128"/>
+      <c r="B38" s="129">
         <v>9</v>
       </c>
       <c r="C38" s="59" t="s">
@@ -6069,8 +6069,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75">
-      <c r="A39" s="114"/>
-      <c r="B39" s="115"/>
+      <c r="A39" s="128"/>
+      <c r="B39" s="129"/>
       <c r="C39" s="59" t="s">
         <v>135</v>
       </c>
@@ -6098,8 +6098,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75">
-      <c r="A40" s="114"/>
-      <c r="B40" s="115"/>
+      <c r="A40" s="128"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="59" t="s">
         <v>135</v>
       </c>
@@ -6127,8 +6127,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75">
-      <c r="A41" s="114"/>
-      <c r="B41" s="115"/>
+      <c r="A41" s="128"/>
+      <c r="B41" s="129"/>
       <c r="C41" s="63" t="s">
         <v>136</v>
       </c>
@@ -6154,8 +6154,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="114"/>
-      <c r="B42" s="115"/>
+      <c r="A42" s="128"/>
+      <c r="B42" s="129"/>
       <c r="C42" s="59" t="s">
         <v>137</v>
       </c>
@@ -6185,8 +6185,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A43" s="114"/>
-      <c r="B43" s="115" t="s">
+      <c r="A43" s="128"/>
+      <c r="B43" s="129" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="66" t="s">
@@ -6214,8 +6214,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
+      <c r="A44" s="128"/>
+      <c r="B44" s="129"/>
       <c r="C44" s="59" t="s">
         <v>140</v>
       </c>
@@ -6242,8 +6242,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75">
-      <c r="A45" s="114"/>
-      <c r="B45" s="115"/>
+      <c r="A45" s="128"/>
+      <c r="B45" s="129"/>
       <c r="C45" s="59" t="s">
         <v>141</v>
       </c>
@@ -6271,8 +6271,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="114"/>
-      <c r="B46" s="115"/>
+      <c r="A46" s="128"/>
+      <c r="B46" s="129"/>
       <c r="C46" s="63" t="s">
         <v>136</v>
       </c>
@@ -6298,8 +6298,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75">
-      <c r="A47" s="114"/>
-      <c r="B47" s="115"/>
+      <c r="A47" s="128"/>
+      <c r="B47" s="129"/>
       <c r="C47" s="59" t="s">
         <v>142</v>
       </c>
@@ -6380,7 +6380,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="51">
-      <c r="A51" s="113">
+      <c r="A51" s="127">
         <v>3</v>
       </c>
       <c r="B51" s="73">
@@ -6410,7 +6410,7 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="113"/>
+      <c r="A52" s="127"/>
       <c r="B52" s="73">
         <v>2</v>
       </c>
@@ -6441,7 +6441,7 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="113"/>
+      <c r="A53" s="127"/>
       <c r="B53" s="73">
         <v>3</v>
       </c>
@@ -6470,7 +6470,7 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="113"/>
+      <c r="A54" s="127"/>
       <c r="B54" s="73">
         <v>4</v>
       </c>
@@ -6501,7 +6501,7 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="113"/>
+      <c r="A55" s="127"/>
       <c r="B55" s="73">
         <v>5</v>
       </c>
@@ -6532,7 +6532,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="51">
-      <c r="A56" s="113"/>
+      <c r="A56" s="127"/>
       <c r="B56" s="73">
         <v>6</v>
       </c>
@@ -6561,7 +6561,7 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="113"/>
+      <c r="A57" s="127"/>
       <c r="B57" s="73">
         <v>7</v>
       </c>
@@ -6590,7 +6590,7 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="113"/>
+      <c r="A58" s="127"/>
       <c r="B58" s="73">
         <v>8</v>
       </c>
@@ -6621,7 +6621,7 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="113"/>
+      <c r="A59" s="127"/>
       <c r="B59" s="73">
         <v>9</v>
       </c>
@@ -6652,7 +6652,7 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="113"/>
+      <c r="A60" s="127"/>
       <c r="B60" s="73">
         <v>10</v>
       </c>
@@ -6738,7 +6738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -6780,10 +6780,10 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="112">
+      <c r="A2" s="126">
         <v>4</v>
       </c>
-      <c r="B2" s="110">
+      <c r="B2" s="124">
         <v>2</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -6811,8 +6811,8 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="112"/>
-      <c r="B3" s="110"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="124"/>
       <c r="C3" s="50" t="s">
         <v>255</v>
       </c>
@@ -6838,8 +6838,8 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="112"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="50" t="s">
         <v>152</v>
       </c>
@@ -6865,8 +6865,8 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="112"/>
-      <c r="B5" s="110">
+      <c r="A5" s="126"/>
+      <c r="B5" s="124">
         <v>3</v>
       </c>
       <c r="C5" s="47" t="s">
@@ -6896,9 +6896,9 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="112"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="134" t="s">
+      <c r="A6" s="126"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="108" t="s">
         <v>154</v>
       </c>
       <c r="D6" s="48">
@@ -6925,8 +6925,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="112"/>
-      <c r="B7" s="110"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="47" t="s">
         <v>155</v>
       </c>
@@ -6954,8 +6954,8 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="112"/>
-      <c r="B8" s="110">
+      <c r="A8" s="126"/>
+      <c r="B8" s="124">
         <v>4</v>
       </c>
       <c r="C8" s="47" t="s">
@@ -6985,8 +6985,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="112"/>
-      <c r="B9" s="110"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="124"/>
       <c r="C9" s="44" t="s">
         <v>157</v>
       </c>
@@ -7012,8 +7012,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="112"/>
-      <c r="B10" s="110"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="47" t="s">
         <v>158</v>
       </c>
@@ -7043,8 +7043,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="112"/>
-      <c r="B11" s="110">
+      <c r="A11" s="126"/>
+      <c r="B11" s="124">
         <v>5</v>
       </c>
       <c r="C11" s="47" t="s">
@@ -7074,8 +7074,8 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="112"/>
-      <c r="B12" s="110"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="47" t="s">
         <v>160</v>
       </c>
@@ -7103,8 +7103,8 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="112"/>
-      <c r="B13" s="110"/>
+      <c r="A13" s="126"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="47" t="s">
         <v>161</v>
       </c>
@@ -7132,8 +7132,8 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="112"/>
-      <c r="B14" s="110">
+      <c r="A14" s="126"/>
+      <c r="B14" s="124">
         <v>6</v>
       </c>
       <c r="C14" s="47" t="s">
@@ -7163,8 +7163,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="112"/>
-      <c r="B15" s="110"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="47" t="s">
         <v>176</v>
       </c>
@@ -7192,8 +7192,8 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="112"/>
-      <c r="B16" s="110"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="47" t="s">
         <v>163</v>
       </c>
@@ -7221,8 +7221,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="112"/>
-      <c r="B17" s="110">
+      <c r="A17" s="126"/>
+      <c r="B17" s="124">
         <v>7</v>
       </c>
       <c r="C17" s="47" t="s">
@@ -7252,9 +7252,9 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="112"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="135" t="s">
+      <c r="A18" s="126"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="109" t="s">
         <v>165</v>
       </c>
       <c r="D18" s="45">
@@ -7279,8 +7279,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="112"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="50" t="s">
         <v>166</v>
       </c>
@@ -7306,8 +7306,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="112"/>
-      <c r="B20" s="110">
+      <c r="A20" s="126"/>
+      <c r="B20" s="124">
         <v>8</v>
       </c>
       <c r="C20" s="47" t="s">
@@ -7337,8 +7337,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="112"/>
-      <c r="B21" s="110"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="47" t="s">
         <v>168</v>
       </c>
@@ -7366,8 +7366,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="112"/>
-      <c r="B22" s="110"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="47" t="s">
         <v>169</v>
       </c>
@@ -7395,8 +7395,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="112"/>
-      <c r="B23" s="110">
+      <c r="A23" s="126"/>
+      <c r="B23" s="124">
         <v>9</v>
       </c>
       <c r="C23" s="47" t="s">
@@ -7428,8 +7428,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="112"/>
-      <c r="B24" s="110"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="47" t="s">
         <v>171</v>
       </c>
@@ -7457,8 +7457,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="112"/>
-      <c r="B25" s="110"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="124"/>
       <c r="C25" s="47" t="s">
         <v>172</v>
       </c>
@@ -7486,8 +7486,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="112"/>
-      <c r="B26" s="110">
+      <c r="A26" s="126"/>
+      <c r="B26" s="124">
         <v>10</v>
       </c>
       <c r="C26" s="50" t="s">
@@ -7515,8 +7515,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="112"/>
-      <c r="B27" s="110"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="124"/>
       <c r="C27" s="50" t="s">
         <v>174</v>
       </c>
@@ -7542,8 +7542,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="112"/>
-      <c r="B28" s="110"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="47" t="s">
         <v>175</v>
       </c>
@@ -7577,7 +7577,7 @@
       <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="111">
+      <c r="A31" s="125">
         <v>4</v>
       </c>
       <c r="B31" s="51">
@@ -7586,7 +7586,7 @@
       <c r="C31" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="136">
+      <c r="D31" s="110">
         <v>34.21</v>
       </c>
       <c r="E31" s="69"/>
@@ -7608,14 +7608,14 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="111"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="51">
         <v>2</v>
       </c>
       <c r="C32" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="D32" s="137">
+      <c r="D32" s="111">
         <v>39.18</v>
       </c>
       <c r="E32" s="49"/>
@@ -7639,14 +7639,14 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="111"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="51">
         <v>3</v>
       </c>
       <c r="C33" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="136">
+      <c r="D33" s="110">
         <v>35.200000000000003</v>
       </c>
       <c r="E33" s="69"/>
@@ -7668,7 +7668,7 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="111"/>
+      <c r="A34" s="125"/>
       <c r="B34" s="51">
         <v>4</v>
       </c>
@@ -7697,14 +7697,14 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="26.25">
-      <c r="A35" s="111"/>
+      <c r="A35" s="125"/>
       <c r="B35" s="51">
         <v>5</v>
       </c>
       <c r="C35" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="137">
+      <c r="D35" s="111">
         <v>39.369999999999997</v>
       </c>
       <c r="E35" s="49"/>
@@ -7765,7 +7765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
@@ -7802,7 +7802,7 @@
       <c r="I1" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="98" t="s">
         <v>254</v>
       </c>
       <c r="L1">
@@ -7816,10 +7816,10 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="112">
+      <c r="A2" s="126">
         <v>5</v>
       </c>
-      <c r="B2" s="124">
+      <c r="B2" s="133">
         <v>2</v>
       </c>
       <c r="C2" s="47" t="s">
@@ -7858,8 +7858,8 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="112"/>
-      <c r="B3" s="124"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="133"/>
       <c r="C3" s="47" t="s">
         <v>182</v>
       </c>
@@ -7896,8 +7896,8 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="112"/>
-      <c r="B4" s="124"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="47" t="s">
         <v>183</v>
       </c>
@@ -7941,8 +7941,8 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="112"/>
-      <c r="B5" s="124"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="47" t="s">
         <v>184</v>
       </c>
@@ -7982,8 +7982,8 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="112"/>
-      <c r="B6" s="124"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="47" t="s">
         <v>182</v>
       </c>
@@ -8011,8 +8011,8 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="112"/>
-      <c r="B7" s="124"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="44" t="s">
         <v>185</v>
       </c>
@@ -8038,8 +8038,8 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="112"/>
-      <c r="B8" s="124">
+      <c r="A8" s="126"/>
+      <c r="B8" s="133">
         <v>3</v>
       </c>
       <c r="C8" s="47" t="s">
@@ -8069,8 +8069,8 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="112"/>
-      <c r="B9" s="124"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="47" t="s">
         <v>112</v>
       </c>
@@ -8098,8 +8098,8 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="112"/>
-      <c r="B10" s="124"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="47" t="s">
         <v>187</v>
       </c>
@@ -8127,8 +8127,8 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="112"/>
-      <c r="B11" s="124"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="47" t="s">
         <v>188</v>
       </c>
@@ -8156,8 +8156,8 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="112"/>
-      <c r="B12" s="124"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="47" t="s">
         <v>189</v>
       </c>
@@ -8187,8 +8187,8 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="112"/>
-      <c r="B13" s="124"/>
+      <c r="A13" s="126"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="50" t="s">
         <v>190</v>
       </c>
@@ -8214,8 +8214,8 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="112"/>
-      <c r="B14" s="110">
+      <c r="A14" s="126"/>
+      <c r="B14" s="124">
         <v>4</v>
       </c>
       <c r="C14" s="47" t="s">
@@ -8247,9 +8247,9 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="112"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="125" t="s">
+      <c r="A15" s="126"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="99" t="s">
         <v>192</v>
       </c>
       <c r="D15" s="48">
@@ -8270,14 +8270,14 @@
       <c r="I15" s="49">
         <v>11187</v>
       </c>
-      <c r="J15" s="126">
+      <c r="J15" s="100">
         <f t="shared" si="0"/>
         <v>-0.19999999999890861</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="112"/>
-      <c r="B16" s="110"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="47" t="s">
         <v>193</v>
       </c>
@@ -8305,8 +8305,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="112"/>
-      <c r="B17" s="110"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="47" t="s">
         <v>194</v>
       </c>
@@ -8334,8 +8334,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="112"/>
-      <c r="B18" s="110"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="47" t="s">
         <v>195</v>
       </c>
@@ -8365,8 +8365,8 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="112"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="50" t="s">
         <v>196</v>
       </c>
@@ -8392,8 +8392,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="112"/>
-      <c r="B20" s="110">
+      <c r="A20" s="126"/>
+      <c r="B20" s="124">
         <v>5</v>
       </c>
       <c r="C20" s="47" t="s">
@@ -8428,8 +8428,8 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="112"/>
-      <c r="B21" s="110"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="47" t="s">
         <v>198</v>
       </c>
@@ -8457,8 +8457,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="112"/>
-      <c r="B22" s="110"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="47" t="s">
         <v>199</v>
       </c>
@@ -8486,8 +8486,8 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="112"/>
-      <c r="B23" s="110"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="47" t="s">
         <v>200</v>
       </c>
@@ -8517,8 +8517,8 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="112"/>
-      <c r="B24" s="110"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="44" t="s">
         <v>201</v>
       </c>
@@ -8544,8 +8544,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="24">
-      <c r="A25" s="112"/>
-      <c r="B25" s="110"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="124"/>
       <c r="C25" s="47" t="s">
         <v>202</v>
       </c>
@@ -8575,8 +8575,8 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="112"/>
-      <c r="B26" s="110">
+      <c r="A26" s="126"/>
+      <c r="B26" s="124">
         <v>6</v>
       </c>
       <c r="C26" s="47" t="s">
@@ -8606,8 +8606,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="112"/>
-      <c r="B27" s="110"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="124"/>
       <c r="C27" s="47" t="s">
         <v>204</v>
       </c>
@@ -8635,8 +8635,8 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="112"/>
-      <c r="B28" s="110"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="47" t="s">
         <v>193</v>
       </c>
@@ -8666,8 +8666,8 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="112"/>
-      <c r="B29" s="110"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="47" t="s">
         <v>205</v>
       </c>
@@ -8695,8 +8695,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="112"/>
-      <c r="B30" s="110"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="124"/>
       <c r="C30" s="44" t="s">
         <v>206</v>
       </c>
@@ -8722,8 +8722,8 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="112"/>
-      <c r="B31" s="110"/>
+      <c r="A31" s="126"/>
+      <c r="B31" s="124"/>
       <c r="C31" s="47" t="s">
         <v>207</v>
       </c>
@@ -8751,8 +8751,8 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="112"/>
-      <c r="B32" s="110">
+      <c r="A32" s="126"/>
+      <c r="B32" s="124">
         <v>7</v>
       </c>
       <c r="C32" s="47" t="s">
@@ -8782,8 +8782,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="112"/>
-      <c r="B33" s="110"/>
+      <c r="A33" s="126"/>
+      <c r="B33" s="124"/>
       <c r="C33" s="47" t="s">
         <v>209</v>
       </c>
@@ -8811,8 +8811,8 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="112"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="126"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="47" t="s">
         <v>210</v>
       </c>
@@ -8840,8 +8840,8 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="112"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="126"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="47" t="s">
         <v>211</v>
       </c>
@@ -8869,8 +8869,8 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="112"/>
-      <c r="B36" s="110"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="124"/>
       <c r="C36" s="47" t="s">
         <v>212</v>
       </c>
@@ -8898,8 +8898,8 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="112"/>
-      <c r="B37" s="110"/>
+      <c r="A37" s="126"/>
+      <c r="B37" s="124"/>
       <c r="C37" s="47" t="s">
         <v>213</v>
       </c>
@@ -8927,8 +8927,8 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="112"/>
-      <c r="B38" s="110">
+      <c r="A38" s="126"/>
+      <c r="B38" s="124">
         <v>8</v>
       </c>
       <c r="C38" s="47" t="s">
@@ -8958,8 +8958,8 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="112"/>
-      <c r="B39" s="110"/>
+      <c r="A39" s="126"/>
+      <c r="B39" s="124"/>
       <c r="C39" s="50" t="s">
         <v>215</v>
       </c>
@@ -8987,37 +8987,37 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="112"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="127" t="s">
+      <c r="A40" s="126"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="101" t="s">
         <v>216</v>
       </c>
-      <c r="D40" s="128">
+      <c r="D40" s="102">
         <v>65.08</v>
       </c>
-      <c r="E40" s="126">
+      <c r="E40" s="100">
         <v>2.5</v>
       </c>
-      <c r="F40" s="126">
-        <v>1</v>
-      </c>
-      <c r="G40" s="126">
+      <c r="F40" s="100">
+        <v>1</v>
+      </c>
+      <c r="G40" s="100">
         <f t="shared" si="1"/>
         <v>67.58</v>
       </c>
-      <c r="H40" s="126">
+      <c r="H40" s="100">
         <f t="shared" si="2"/>
         <v>20544.32</v>
       </c>
-      <c r="I40" s="126"/>
+      <c r="I40" s="100"/>
       <c r="J40" s="46">
         <f t="shared" si="0"/>
         <v>-20544.32</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="112"/>
-      <c r="B41" s="110"/>
+      <c r="A41" s="126"/>
+      <c r="B41" s="124"/>
       <c r="C41" s="47" t="s">
         <v>217</v>
       </c>
@@ -9045,8 +9045,8 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="112"/>
-      <c r="B42" s="110"/>
+      <c r="A42" s="126"/>
+      <c r="B42" s="124"/>
       <c r="C42" s="44" t="s">
         <v>218</v>
       </c>
@@ -9072,8 +9072,8 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="112"/>
-      <c r="B43" s="110"/>
+      <c r="A43" s="126"/>
+      <c r="B43" s="124"/>
       <c r="C43" s="47" t="s">
         <v>219</v>
       </c>
@@ -9101,8 +9101,8 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="112"/>
-      <c r="B44" s="110">
+      <c r="A44" s="126"/>
+      <c r="B44" s="124">
         <v>9</v>
       </c>
       <c r="C44" s="47" t="s">
@@ -9132,8 +9132,8 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="112"/>
-      <c r="B45" s="110"/>
+      <c r="A45" s="126"/>
+      <c r="B45" s="124"/>
       <c r="C45" s="47" t="s">
         <v>217</v>
       </c>
@@ -9161,8 +9161,8 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="112"/>
-      <c r="B46" s="110"/>
+      <c r="A46" s="126"/>
+      <c r="B46" s="124"/>
       <c r="C46" s="47" t="s">
         <v>221</v>
       </c>
@@ -9190,8 +9190,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="112"/>
-      <c r="B47" s="110"/>
+      <c r="A47" s="126"/>
+      <c r="B47" s="124"/>
       <c r="C47" s="47" t="s">
         <v>222</v>
       </c>
@@ -9219,8 +9219,8 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="112"/>
-      <c r="B48" s="110"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="124"/>
       <c r="C48" s="47" t="s">
         <v>223</v>
       </c>
@@ -9250,8 +9250,8 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="112"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="126"/>
+      <c r="B49" s="124"/>
       <c r="C49" s="44" t="s">
         <v>224</v>
       </c>
@@ -9277,8 +9277,8 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="112"/>
-      <c r="B50" s="110">
+      <c r="A50" s="126"/>
+      <c r="B50" s="124">
         <v>10</v>
       </c>
       <c r="C50" s="50" t="s">
@@ -9309,9 +9309,9 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="112"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="129" t="s">
+      <c r="A51" s="126"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="103" t="s">
         <v>226</v>
       </c>
       <c r="D51" s="91">
@@ -9339,8 +9339,8 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="112"/>
-      <c r="B52" s="110"/>
+      <c r="A52" s="126"/>
+      <c r="B52" s="124"/>
       <c r="C52" s="47" t="s">
         <v>227</v>
       </c>
@@ -9371,9 +9371,9 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="112"/>
-      <c r="B53" s="110"/>
-      <c r="C53" s="130" t="s">
+      <c r="A53" s="126"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="104" t="s">
         <v>228</v>
       </c>
       <c r="D53" s="91">
@@ -9401,27 +9401,27 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="112"/>
-      <c r="B54" s="110"/>
-      <c r="C54" s="127" t="s">
+      <c r="A54" s="126"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="101" t="s">
         <v>229</v>
       </c>
-      <c r="D54" s="128">
+      <c r="D54" s="102">
         <v>37.32</v>
       </c>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126">
-        <v>1</v>
-      </c>
-      <c r="G54" s="126">
+      <c r="E54" s="100"/>
+      <c r="F54" s="100">
+        <v>1</v>
+      </c>
+      <c r="G54" s="100">
         <f t="shared" si="1"/>
         <v>37.32</v>
       </c>
-      <c r="H54" s="126">
+      <c r="H54" s="100">
         <f t="shared" si="2"/>
         <v>11345.28</v>
       </c>
-      <c r="I54" s="126"/>
+      <c r="I54" s="100"/>
       <c r="J54" s="46">
         <f t="shared" si="0"/>
         <v>-11345.28</v>
@@ -9431,8 +9431,8 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="112"/>
-      <c r="B55" s="110"/>
+      <c r="A55" s="126"/>
+      <c r="B55" s="124"/>
       <c r="C55" s="44" t="s">
         <v>229</v>
       </c>
@@ -9481,7 +9481,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A58" s="116">
+      <c r="A58" s="130">
         <v>5</v>
       </c>
       <c r="B58" s="5">
@@ -9512,7 +9512,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A59" s="117"/>
+      <c r="A59" s="131"/>
       <c r="B59" s="21">
         <v>2</v>
       </c>
@@ -9543,7 +9543,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A60" s="118"/>
+      <c r="A60" s="132"/>
       <c r="B60" s="4">
         <v>3</v>
       </c>
@@ -9661,10 +9661,10 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="134" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="134"/>
       <c r="C3" t="s">
         <v>233</v>
       </c>
@@ -9684,8 +9684,8 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="120"/>
-      <c r="B4" s="120"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="18" t="s">
         <v>249</v>
       </c>
@@ -9713,8 +9713,8 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
       <c r="C5" t="s">
         <v>252</v>
       </c>
@@ -9733,8 +9733,8 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="120"/>
-      <c r="B6" s="120"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="18" t="s">
         <v>234</v>
       </c>
@@ -9762,8 +9762,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="120"/>
-      <c r="B7" s="120"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="135"/>
       <c r="C7" s="18" t="s">
         <v>243</v>
       </c>
@@ -9791,8 +9791,8 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="120"/>
-      <c r="B8" s="120"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="18" t="s">
         <v>250</v>
       </c>
@@ -9820,8 +9820,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="120"/>
-      <c r="B9" s="120"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="95" t="s">
         <v>257</v>
       </c>
@@ -9849,8 +9849,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="120"/>
-      <c r="B10" s="120"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="135"/>
       <c r="C10" s="25" t="s">
         <v>274</v>
       </c>
@@ -9871,8 +9871,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="120"/>
-      <c r="B11" s="120"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="135"/>
       <c r="C11" t="s">
         <v>256</v>
       </c>
@@ -9922,7 +9922,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10027,14 +10027,14 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="136" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="46"/>
@@ -10062,18 +10062,20 @@
         <v>235</v>
       </c>
       <c r="C12" s="46">
-        <v>688605</v>
+        <f>підїзд1!I53</f>
+        <v>695284.47999999986</v>
       </c>
       <c r="D12" s="46">
-        <v>653703</v>
+        <f>підїзд1!J53</f>
+        <v>686497</v>
       </c>
       <c r="E12" s="46">
         <f>D12*100/C12</f>
-        <v>94.931491929335394</v>
+        <v>98.736131719781824</v>
       </c>
       <c r="F12" s="46">
         <f t="shared" ref="F12:F17" si="0">D12-C12</f>
-        <v>-34902</v>
+        <v>-8787.479999999865</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10084,18 +10086,20 @@
         <v>236</v>
       </c>
       <c r="C13" s="46">
-        <v>591170</v>
+        <f>підїзд2!I46</f>
+        <v>631943.03999999969</v>
       </c>
       <c r="D13" s="46">
-        <v>580024</v>
+        <f>підїзд2!J46</f>
+        <v>601487</v>
       </c>
       <c r="E13" s="46">
         <f t="shared" ref="E13:E17" si="1">D13*100/C13</f>
-        <v>98.114586328805586</v>
+        <v>95.180571970537144</v>
       </c>
       <c r="F13" s="46">
         <f t="shared" si="0"/>
-        <v>-11146</v>
+        <v>-30456.039999999688</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10106,18 +10110,20 @@
         <v>237</v>
       </c>
       <c r="C14" s="46">
-        <v>735710</v>
+        <f>підїзд3!H61</f>
+        <v>766839.99999999977</v>
       </c>
       <c r="D14" s="46">
-        <v>645730</v>
+        <f>підїзд3!I61</f>
+        <v>696607</v>
       </c>
       <c r="E14" s="46">
         <f t="shared" si="1"/>
-        <v>87.76963749303394</v>
+        <v>90.841244588180089</v>
       </c>
       <c r="F14" s="46">
         <f t="shared" si="0"/>
-        <v>-89980</v>
+        <v>-70232.999999999767</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10128,18 +10134,20 @@
         <v>238</v>
       </c>
       <c r="C15" s="46">
-        <v>442642</v>
+        <f>підїзд4!H36</f>
+        <v>442642.23999999993</v>
       </c>
       <c r="D15" s="46">
-        <v>355380</v>
+        <f>підїзд4!I36</f>
+        <v>397335</v>
       </c>
       <c r="E15" s="46">
         <f t="shared" si="1"/>
-        <v>80.286100279684263</v>
+        <v>89.76436591320342</v>
       </c>
       <c r="F15" s="46">
         <f t="shared" si="0"/>
-        <v>-87262</v>
+        <v>-45307.239999999932</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10150,18 +10158,20 @@
         <v>239</v>
       </c>
       <c r="C16" s="46">
-        <v>738425</v>
+        <f>підїзд5!H61</f>
+        <v>789168.80000000028</v>
       </c>
       <c r="D16" s="46">
-        <v>613528</v>
+        <f>підїзд5!I61</f>
+        <v>658340</v>
       </c>
       <c r="E16" s="46">
         <f t="shared" si="1"/>
-        <v>83.086027694078609</v>
+        <v>83.421949778044919</v>
       </c>
       <c r="F16" s="46">
         <f t="shared" si="0"/>
-        <v>-124897</v>
+        <v>-130828.80000000028</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -10172,18 +10182,20 @@
         <v>232</v>
       </c>
       <c r="C17" s="46">
-        <v>409404</v>
+        <f>комерція!H12</f>
+        <v>409404.92</v>
       </c>
       <c r="D17" s="46">
-        <v>215780</v>
+        <f>комерція!I12</f>
+        <v>223780</v>
       </c>
       <c r="E17" s="46">
         <f t="shared" si="1"/>
-        <v>52.705884651835348</v>
+        <v>54.65982187024035</v>
       </c>
       <c r="F17" s="46">
         <f t="shared" si="0"/>
-        <v>-193624</v>
+        <v>-185624.91999999998</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10191,19 +10203,19 @@
       <c r="B18" s="46"/>
       <c r="C18" s="46">
         <f>SUM(C12:C17)</f>
-        <v>3605956</v>
+        <v>3735283.4799999995</v>
       </c>
       <c r="D18" s="46">
         <f>SUM(D12:D17)</f>
-        <v>3064145</v>
+        <v>3264046</v>
       </c>
       <c r="E18" s="46">
         <f>D18*100/C18</f>
-        <v>84.97455321140913</v>
+        <v>87.384157520488927</v>
       </c>
       <c r="F18" s="46">
         <f>D18-C18</f>
-        <v>-541811</v>
+        <v>-471237.47999999952</v>
       </c>
     </row>
   </sheetData>
@@ -10237,19 +10249,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" t="s">

--- a/муровка/вартість_квадрату_добудови.xlsx
+++ b/муровка/вартість_квадрату_добудови.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="10050"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="10050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="підїзд1" sheetId="1" r:id="rId1"/>
@@ -1892,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3585,8 +3585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4915,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5016,11 +5016,11 @@
         <v>11357.44</v>
       </c>
       <c r="I4" s="49">
-        <v>11357</v>
+        <v>11360</v>
       </c>
       <c r="J4" s="46">
         <f t="shared" ref="J4:J60" si="2">I4-H4</f>
-        <v>-0.44000000000050932</v>
+        <v>2.5599999999994907</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75">
@@ -5167,25 +5167,25 @@
     <row r="9" spans="1:14" ht="15.75">
       <c r="A9" s="128"/>
       <c r="B9" s="129"/>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="67">
         <v>37.36</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="63">
-        <v>1</v>
-      </c>
-      <c r="G9" s="64">
+      <c r="E9" s="52"/>
+      <c r="F9" s="66">
+        <v>1</v>
+      </c>
+      <c r="G9" s="67">
         <f t="shared" si="0"/>
         <v>37.36</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="68">
         <f t="shared" si="1"/>
         <v>11357.44</v>
       </c>
-      <c r="I9" s="43"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="46">
         <f t="shared" si="2"/>
         <v>-11357.44</v>
@@ -5521,11 +5521,11 @@
         <v>17714.080000000002</v>
       </c>
       <c r="I20" s="49">
-        <v>17714</v>
+        <v>17720</v>
       </c>
       <c r="J20" s="46">
         <f t="shared" si="2"/>
-        <v>-8.000000000174623E-2</v>
+        <v>5.9199999999982538</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75">
@@ -5773,28 +5773,30 @@
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="128"/>
       <c r="B29" s="129"/>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="67">
+      <c r="D29" s="60">
         <v>37.36</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="66">
-        <v>0</v>
-      </c>
-      <c r="G29" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="69"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="59">
+        <v>1</v>
+      </c>
+      <c r="G29" s="60">
+        <f t="shared" si="0"/>
+        <v>37.36</v>
+      </c>
+      <c r="H29" s="62">
+        <f t="shared" si="1"/>
+        <v>11357.44</v>
+      </c>
+      <c r="I29" s="49">
+        <v>11360</v>
+      </c>
       <c r="J29" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5599999999994907</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75">
@@ -6691,15 +6693,15 @@
       <c r="F61" s="54"/>
       <c r="G61" s="72">
         <f>SUM(G3:G60)</f>
-        <v>2522.4999999999991</v>
+        <v>2559.8599999999992</v>
       </c>
       <c r="H61" s="92">
         <f>SUM(H3:H60)</f>
-        <v>766839.99999999977</v>
+        <v>778197.43999999971</v>
       </c>
       <c r="I61">
         <f>SUM(I3:I60)</f>
-        <v>696607</v>
+        <v>707976</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1">
@@ -6712,7 +6714,7 @@
       <c r="G62" s="1"/>
       <c r="I62">
         <f>I61*100/H61</f>
-        <v>90.841244588180089</v>
+        <v>90.976397969132393</v>
       </c>
     </row>
   </sheetData>
@@ -6738,8 +6740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7763,10 +7765,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7774,7 +7776,7 @@
     <col min="3" max="3" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="48.75" customHeight="1">
+    <row r="1" spans="1:14" ht="48.75" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -7805,17 +7807,8 @@
       <c r="J1" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="L1">
-        <v>1</v>
-      </c>
-      <c r="M1">
-        <v>2</v>
-      </c>
-      <c r="N1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="126">
         <v>5</v>
       </c>
@@ -7847,17 +7840,8 @@
         <f t="shared" ref="J2:J60" si="0">I2-H2</f>
         <v>-0.7999999999992724</v>
       </c>
-      <c r="L2">
-        <v>27</v>
-      </c>
-      <c r="M2">
-        <v>18</v>
-      </c>
-      <c r="N2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="126"/>
       <c r="B3" s="133"/>
       <c r="C3" s="47" t="s">
@@ -7885,17 +7869,8 @@
         <f t="shared" si="0"/>
         <v>12.800000000001091</v>
       </c>
-      <c r="L3">
-        <v>19</v>
-      </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="126"/>
       <c r="B4" s="133"/>
       <c r="C4" s="47" t="s">
@@ -7923,24 +7898,8 @@
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="L4">
-        <f>L3*37*304</f>
-        <v>213712</v>
-      </c>
-      <c r="M4">
-        <f>M3*63*304</f>
-        <v>210672</v>
-      </c>
-      <c r="N4">
-        <f>N3*76*304</f>
-        <v>161728</v>
-      </c>
-      <c r="O4">
-        <f>SUM(L4:N4)</f>
-        <v>586112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="126"/>
       <c r="B5" s="133"/>
       <c r="C5" s="47" t="s">
@@ -7968,20 +7927,11 @@
         <f t="shared" si="0"/>
         <v>3.6000000000003638</v>
       </c>
-      <c r="L5" s="83">
-        <f>L4/O4</f>
-        <v>0.36462655601659749</v>
-      </c>
-      <c r="M5" s="83">
-        <f>M4/O4</f>
-        <v>0.35943983402489627</v>
-      </c>
-      <c r="N5" s="83">
-        <f>N4/O4</f>
-        <v>0.27593360995850624</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="126"/>
       <c r="B6" s="133"/>
       <c r="C6" s="47" t="s">
@@ -8010,7 +7960,7 @@
         <v>89.719999999999345</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
       <c r="A7" s="126"/>
       <c r="B7" s="133"/>
       <c r="C7" s="44" t="s">
@@ -8037,7 +7987,7 @@
         <v>-17729.28</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:14">
       <c r="A8" s="126"/>
       <c r="B8" s="133">
         <v>3</v>
@@ -8068,7 +8018,7 @@
         <v>-0.83999999999650754</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:14">
       <c r="A9" s="126"/>
       <c r="B9" s="133"/>
       <c r="C9" s="47" t="s">
@@ -8097,7 +8047,7 @@
         <v>-0.19999999999890861</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:14">
       <c r="A10" s="126"/>
       <c r="B10" s="133"/>
       <c r="C10" s="47" t="s">
@@ -8126,7 +8076,7 @@
         <v>15.680000000000291</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:14">
       <c r="A11" s="126"/>
       <c r="B11" s="133"/>
       <c r="C11" s="47" t="s">
@@ -8155,7 +8105,7 @@
         <v>-0.3999999999996362</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:14">
       <c r="A12" s="126"/>
       <c r="B12" s="133"/>
       <c r="C12" s="47" t="s">
@@ -8186,7 +8136,7 @@
         <v>-0.28000000000065484</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:14">
       <c r="A13" s="126"/>
       <c r="B13" s="133"/>
       <c r="C13" s="50" t="s">
@@ -8213,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:14">
       <c r="A14" s="126"/>
       <c r="B14" s="124">
         <v>4</v>
@@ -8246,7 +8196,7 @@
         <v>-179.83999999999651</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:14">
       <c r="A15" s="126"/>
       <c r="B15" s="124"/>
       <c r="C15" s="99" t="s">
@@ -8275,7 +8225,7 @@
         <v>-0.19999999999890861</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:14">
       <c r="A16" s="126"/>
       <c r="B16" s="124"/>
       <c r="C16" s="47" t="s">
@@ -9100,7 +9050,7 @@
         <v>0.72000000000116415</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1">
       <c r="A44" s="126"/>
       <c r="B44" s="124">
         <v>9</v>
@@ -9619,7 +9569,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C11" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10111,19 +10061,19 @@
       </c>
       <c r="C14" s="46">
         <f>підїзд3!H61</f>
-        <v>766839.99999999977</v>
+        <v>778197.43999999971</v>
       </c>
       <c r="D14" s="46">
         <f>підїзд3!I61</f>
-        <v>696607</v>
+        <v>707976</v>
       </c>
       <c r="E14" s="46">
         <f t="shared" si="1"/>
-        <v>90.841244588180089</v>
+        <v>90.976397969132393</v>
       </c>
       <c r="F14" s="46">
         <f t="shared" si="0"/>
-        <v>-70232.999999999767</v>
+        <v>-70221.439999999711</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10203,19 +10153,19 @@
       <c r="B18" s="46"/>
       <c r="C18" s="46">
         <f>SUM(C12:C17)</f>
-        <v>3735283.4799999995</v>
+        <v>3746640.919999999</v>
       </c>
       <c r="D18" s="46">
         <f>SUM(D12:D17)</f>
-        <v>3264046</v>
+        <v>3275415</v>
       </c>
       <c r="E18" s="46">
         <f>D18*100/C18</f>
-        <v>87.384157520488927</v>
+        <v>87.422709299827986</v>
       </c>
       <c r="F18" s="46">
         <f>D18-C18</f>
-        <v>-471237.47999999952</v>
+        <v>-471225.91999999899</v>
       </c>
     </row>
   </sheetData>

--- a/муровка/вартість_квадрату_добудови.xlsx
+++ b/муровка/вартість_квадрату_добудови.xlsx
@@ -7768,7 +7768,7 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7963,28 +7963,30 @@
     <row r="7" spans="1:14">
       <c r="A7" s="126"/>
       <c r="B7" s="133"/>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="48">
         <v>58.32</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
-        <v>1</v>
-      </c>
-      <c r="G7" s="46">
+      <c r="E7" s="49"/>
+      <c r="F7" s="49">
+        <v>1</v>
+      </c>
+      <c r="G7" s="49">
         <f t="shared" si="1"/>
         <v>58.32</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="49">
         <f t="shared" si="2"/>
         <v>17729.28</v>
       </c>
-      <c r="I7" s="46"/>
+      <c r="I7" s="49">
+        <v>17729</v>
+      </c>
       <c r="J7" s="46">
         <f t="shared" si="0"/>
-        <v>-17729.28</v>
+        <v>-0.27999999999883585</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -9536,13 +9538,13 @@
       </c>
       <c r="I61">
         <f>SUM(I2:I60)</f>
-        <v>658340</v>
+        <v>676069</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="I62">
         <f>I61*100/H61</f>
-        <v>83.421949778044919</v>
+        <v>85.6684906955267</v>
       </c>
     </row>
   </sheetData>
@@ -10113,15 +10115,15 @@
       </c>
       <c r="D16" s="46">
         <f>підїзд5!I61</f>
-        <v>658340</v>
+        <v>676069</v>
       </c>
       <c r="E16" s="46">
         <f t="shared" si="1"/>
-        <v>83.421949778044919</v>
+        <v>85.6684906955267</v>
       </c>
       <c r="F16" s="46">
         <f t="shared" si="0"/>
-        <v>-130828.80000000028</v>
+        <v>-113099.80000000028</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -10157,15 +10159,15 @@
       </c>
       <c r="D18" s="46">
         <f>SUM(D12:D17)</f>
-        <v>3275415</v>
+        <v>3293144</v>
       </c>
       <c r="E18" s="46">
         <f>D18*100/C18</f>
-        <v>87.422709299827986</v>
+        <v>87.895906501763207</v>
       </c>
       <c r="F18" s="46">
         <f>D18-C18</f>
-        <v>-471225.91999999899</v>
+        <v>-453496.91999999899</v>
       </c>
     </row>
   </sheetData>

--- a/муровка/вартість_квадрату_добудови.xlsx
+++ b/муровка/вартість_квадрату_добудови.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="10050" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="10050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="підїзд1" sheetId="1" r:id="rId1"/>
@@ -1892,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O76"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3585,8 +3585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4915,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6741,7 +6741,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C27"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7767,8 +7767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I7"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/муровка/вартість_квадрату_добудови.xlsx
+++ b/муровка/вартість_квадрату_добудови.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="10050" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="10050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="підїзд1" sheetId="1" r:id="rId1"/>
@@ -1015,7 +1015,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1182,15 +1182,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1220,7 +1211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1336,33 +1327,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1374,37 +1365,31 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1414,27 +1399,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1456,10 +1441,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1467,27 +1452,27 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1499,95 +1484,98 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1892,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O76"/>
   <sheetViews>
-    <sheetView topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1907,17 +1895,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
     </row>
     <row r="2" spans="2:15" ht="65.25" thickBot="1">
       <c r="B2" s="1" t="s">
@@ -1955,10 +1944,10 @@
       <c r="O2" s="29"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B3" s="115">
-        <v>1</v>
-      </c>
-      <c r="C3" s="118">
+      <c r="B3" s="112">
+        <v>1</v>
+      </c>
+      <c r="C3" s="115">
         <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -1988,8 +1977,8 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B4" s="116"/>
-      <c r="C4" s="119"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="116"/>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
@@ -2011,8 +2000,8 @@
       <c r="J4" s="34"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B5" s="116"/>
-      <c r="C5" s="119"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="116"/>
       <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
@@ -2034,8 +2023,8 @@
       <c r="J5" s="39"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B6" s="116"/>
-      <c r="C6" s="119"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="14" t="s">
         <v>11</v>
       </c>
@@ -2063,8 +2052,8 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B7" s="116"/>
-      <c r="C7" s="120"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2086,8 +2075,8 @@
       <c r="J7" s="34"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B8" s="116"/>
-      <c r="C8" s="118">
+      <c r="B8" s="113"/>
+      <c r="C8" s="115">
         <v>3</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -2117,8 +2106,8 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B9" s="116"/>
-      <c r="C9" s="119"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="14" t="s">
         <v>248</v>
       </c>
@@ -2146,8 +2135,8 @@
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B10" s="116"/>
-      <c r="C10" s="119"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="14" t="s">
         <v>14</v>
       </c>
@@ -2175,8 +2164,8 @@
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B11" s="116"/>
-      <c r="C11" s="119"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="10" t="s">
         <v>15</v>
       </c>
@@ -2204,8 +2193,8 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B12" s="116"/>
-      <c r="C12" s="120"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="14" t="s">
         <v>16</v>
       </c>
@@ -2235,8 +2224,8 @@
       </c>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B13" s="116"/>
-      <c r="C13" s="121">
+      <c r="B13" s="113"/>
+      <c r="C13" s="118">
         <v>4</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -2266,8 +2255,8 @@
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B14" s="116"/>
-      <c r="C14" s="122"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="32" t="s">
         <v>18</v>
       </c>
@@ -2295,8 +2284,8 @@
       </c>
     </row>
     <row r="15" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B15" s="116"/>
-      <c r="C15" s="122"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="119"/>
       <c r="D15" s="9" t="s">
         <v>19</v>
       </c>
@@ -2322,8 +2311,8 @@
       </c>
     </row>
     <row r="16" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B16" s="116"/>
-      <c r="C16" s="122"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="14" t="s">
         <v>20</v>
       </c>
@@ -2356,8 +2345,8 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="116"/>
-      <c r="C17" s="123"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="14" t="s">
         <v>21</v>
       </c>
@@ -2381,14 +2370,14 @@
       <c r="J17" s="16">
         <v>25000</v>
       </c>
-      <c r="K17" s="87">
+      <c r="K17" s="85">
         <f t="shared" si="2"/>
         <v>190.56000000000131</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="116"/>
-      <c r="C18" s="121">
+      <c r="B18" s="113"/>
+      <c r="C18" s="118">
         <v>5</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -2418,8 +2407,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B19" s="116"/>
-      <c r="C19" s="122"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="119"/>
       <c r="D19" s="14" t="s">
         <v>14</v>
       </c>
@@ -2447,8 +2436,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="116"/>
-      <c r="C20" s="122"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="119"/>
       <c r="D20" s="14" t="s">
         <v>23</v>
       </c>
@@ -2476,8 +2465,8 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="116"/>
-      <c r="C21" s="122"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="119"/>
       <c r="D21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2503,8 +2492,8 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="116"/>
-      <c r="C22" s="123"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="14" t="s">
         <v>25</v>
       </c>
@@ -2532,8 +2521,8 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="116"/>
-      <c r="C23" s="121">
+      <c r="B23" s="113"/>
+      <c r="C23" s="118">
         <v>6</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -2565,8 +2554,8 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="116"/>
-      <c r="C24" s="122"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="119"/>
       <c r="D24" s="14" t="s">
         <v>27</v>
       </c>
@@ -2594,8 +2583,8 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="116"/>
-      <c r="C25" s="122"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="14" t="s">
         <v>28</v>
       </c>
@@ -2623,8 +2612,8 @@
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="116"/>
-      <c r="C26" s="122"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="119"/>
       <c r="D26" s="14" t="s">
         <v>29</v>
       </c>
@@ -2652,8 +2641,8 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="116"/>
-      <c r="C27" s="123"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="120"/>
       <c r="D27" s="14" t="s">
         <v>30</v>
       </c>
@@ -2683,8 +2672,8 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="116"/>
-      <c r="C28" s="121">
+      <c r="B28" s="113"/>
+      <c r="C28" s="118">
         <v>7</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -2714,8 +2703,8 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B29" s="116"/>
-      <c r="C29" s="122"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="14" t="s">
         <v>32</v>
       </c>
@@ -2743,8 +2732,8 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B30" s="116"/>
-      <c r="C30" s="122"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="119"/>
       <c r="D30" s="14" t="s">
         <v>33</v>
       </c>
@@ -2772,8 +2761,8 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B31" s="116"/>
-      <c r="C31" s="122"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="119"/>
       <c r="D31" s="14" t="s">
         <v>34</v>
       </c>
@@ -2801,8 +2790,8 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="24.75" thickBot="1">
-      <c r="B32" s="116"/>
-      <c r="C32" s="123"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="14" t="s">
         <v>35</v>
       </c>
@@ -2832,8 +2821,8 @@
       </c>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B33" s="116"/>
-      <c r="C33" s="121">
+      <c r="B33" s="113"/>
+      <c r="C33" s="118">
         <v>8</v>
       </c>
       <c r="D33" s="14" t="s">
@@ -2863,8 +2852,8 @@
       </c>
     </row>
     <row r="34" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B34" s="116"/>
-      <c r="C34" s="122"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="119"/>
       <c r="D34" s="14" t="s">
         <v>37</v>
       </c>
@@ -2892,8 +2881,8 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B35" s="116"/>
-      <c r="C35" s="122"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="119"/>
       <c r="D35" s="3" t="s">
         <v>19</v>
       </c>
@@ -2919,8 +2908,8 @@
       </c>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B36" s="116"/>
-      <c r="C36" s="122"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="119"/>
       <c r="D36" s="14" t="s">
         <v>38</v>
       </c>
@@ -2948,8 +2937,8 @@
       </c>
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B37" s="116"/>
-      <c r="C37" s="123"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="14" t="s">
         <v>39</v>
       </c>
@@ -2977,8 +2966,8 @@
       </c>
     </row>
     <row r="38" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B38" s="116"/>
-      <c r="C38" s="121">
+      <c r="B38" s="113"/>
+      <c r="C38" s="118">
         <v>9</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -3008,8 +2997,8 @@
       </c>
     </row>
     <row r="39" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B39" s="116"/>
-      <c r="C39" s="122"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="119"/>
       <c r="D39" s="14" t="s">
         <v>41</v>
       </c>
@@ -3037,8 +3026,8 @@
       </c>
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B40" s="116"/>
-      <c r="C40" s="122"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="119"/>
       <c r="D40" s="14" t="s">
         <v>42</v>
       </c>
@@ -3066,8 +3055,8 @@
       </c>
     </row>
     <row r="41" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B41" s="116"/>
-      <c r="C41" s="122"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="119"/>
       <c r="D41" s="37" t="s">
         <v>43</v>
       </c>
@@ -3097,8 +3086,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B42" s="116"/>
-      <c r="C42" s="123"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="120"/>
       <c r="D42" s="14" t="s">
         <v>44</v>
       </c>
@@ -3128,8 +3117,8 @@
       </c>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B43" s="116"/>
-      <c r="C43" s="121">
+      <c r="B43" s="113"/>
+      <c r="C43" s="118">
         <v>10</v>
       </c>
       <c r="D43" s="14" t="s">
@@ -3157,13 +3146,13 @@
         <f t="shared" si="2"/>
         <v>-5884.0400000000009</v>
       </c>
-      <c r="M43" s="82">
+      <c r="M43" s="80">
         <v>-0.3</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B44" s="116"/>
-      <c r="C44" s="122"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="119"/>
       <c r="D44" s="14" t="s">
         <v>45</v>
       </c>
@@ -3189,14 +3178,14 @@
         <f t="shared" si="2"/>
         <v>-3407.4400000000005</v>
       </c>
-      <c r="M44" s="82">
+      <c r="M44" s="80">
         <v>-0.3</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B45" s="116"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="113" t="s">
+      <c r="B45" s="113"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="110" t="s">
         <v>46</v>
       </c>
       <c r="E45" s="15">
@@ -3221,14 +3210,14 @@
         <f t="shared" si="2"/>
         <v>-1407.2800000000007</v>
       </c>
-      <c r="M45" s="82">
+      <c r="M45" s="80">
         <v>-0.3</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B46" s="116"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="114"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="111"/>
       <c r="E46" s="15">
         <v>65.040000000000006</v>
       </c>
@@ -3254,11 +3243,11 @@
       <c r="L46" t="s">
         <v>253</v>
       </c>
-      <c r="M46" s="82"/>
+      <c r="M46" s="80"/>
     </row>
     <row r="47" spans="2:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B47" s="117"/>
-      <c r="C47" s="123"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="120"/>
       <c r="D47" s="14" t="s">
         <v>47</v>
       </c>
@@ -3284,7 +3273,7 @@
         <f t="shared" si="2"/>
         <v>-0.43999999999869033</v>
       </c>
-      <c r="M47" s="82">
+      <c r="M47" s="80">
         <v>-0.3</v>
       </c>
     </row>
@@ -3355,9 +3344,9 @@
       </c>
       <c r="I51" s="34"/>
       <c r="J51" s="34"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
+      <c r="M51" s="80"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="80"/>
     </row>
     <row r="52" spans="2:15" ht="15.75" thickBot="1">
       <c r="C52" s="1"/>
@@ -3376,15 +3365,15 @@
     </row>
     <row r="53" spans="2:15" ht="15.75" thickBot="1">
       <c r="C53" s="1"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70">
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68">
         <f>SUM(H3:H52)</f>
         <v>2327.1099999999992</v>
       </c>
-      <c r="I53" s="84">
+      <c r="I53" s="82">
         <f>SUM(I3:I52)</f>
         <v>695284.47999999986</v>
       </c>
@@ -3395,9 +3384,9 @@
     </row>
     <row r="54" spans="2:15">
       <c r="C54" s="25"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -3408,9 +3397,9 @@
     </row>
     <row r="55" spans="2:15">
       <c r="C55" s="25"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
@@ -3419,82 +3408,82 @@
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
       <c r="D56" s="31"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
       <c r="I56" s="19"/>
     </row>
     <row r="57" spans="2:15">
       <c r="C57" s="25"/>
       <c r="D57" s="31"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
       <c r="I57" s="19"/>
     </row>
     <row r="58" spans="2:15">
       <c r="C58" s="25"/>
       <c r="D58" s="31"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
       <c r="I58" s="19"/>
     </row>
     <row r="59" spans="2:15">
       <c r="C59" s="25"/>
       <c r="D59" s="31"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
       <c r="I59" s="19"/>
     </row>
     <row r="60" spans="2:15">
       <c r="C60" s="25"/>
       <c r="D60" s="31"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
       <c r="I60" s="19"/>
     </row>
     <row r="61" spans="2:15">
       <c r="C61" s="25"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
-      <c r="I61" s="86"/>
+      <c r="I61" s="84"/>
     </row>
     <row r="62" spans="2:15">
       <c r="C62" s="25"/>
       <c r="D62" s="31"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
       <c r="I62" s="19"/>
     </row>
     <row r="63" spans="2:15">
       <c r="C63" s="25"/>
       <c r="D63" s="31"/>
-      <c r="E63" s="88"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
       <c r="I63" s="19"/>
     </row>
     <row r="64" spans="2:15">
       <c r="C64" s="25"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
       <c r="I64" s="19"/>
     </row>
     <row r="65" spans="3:11">
@@ -3563,7 +3552,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:J1"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="B3:B47"/>
     <mergeCell ref="C3:C7"/>
@@ -3575,6 +3563,7 @@
     <mergeCell ref="C33:C37"/>
     <mergeCell ref="C38:C42"/>
     <mergeCell ref="C43:C47"/>
+    <mergeCell ref="B1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3585,8 +3574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:D45"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3624,15 +3613,15 @@
       <c r="J1" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="95" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="126">
+      <c r="B2" s="123">
         <v>2</v>
       </c>
-      <c r="C2" s="124">
+      <c r="C2" s="121">
         <v>2</v>
       </c>
       <c r="D2" s="44" t="s">
@@ -3643,25 +3632,25 @@
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="46">
         <f>(E2+F2)*G2</f>
-        <v>73.83</v>
+        <v>0</v>
       </c>
       <c r="I2" s="46">
         <f>H2*304</f>
-        <v>22444.32</v>
+        <v>0</v>
       </c>
       <c r="J2" s="46"/>
       <c r="K2">
         <f>J2-I2</f>
-        <v>-22444.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="126"/>
-      <c r="C3" s="124"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="121"/>
       <c r="D3" s="47" t="s">
         <v>52</v>
       </c>
@@ -3689,8 +3678,8 @@
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="126"/>
-      <c r="C4" s="124"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="121"/>
       <c r="D4" s="47" t="s">
         <v>69</v>
       </c>
@@ -3720,8 +3709,8 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="126"/>
-      <c r="C5" s="124"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="121"/>
       <c r="D5" s="47" t="s">
         <v>70</v>
       </c>
@@ -3749,8 +3738,8 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="126"/>
-      <c r="C6" s="124">
+      <c r="B6" s="123"/>
+      <c r="C6" s="121">
         <v>3</v>
       </c>
       <c r="D6" s="47" t="s">
@@ -3780,35 +3769,35 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="126"/>
-      <c r="C7" s="124"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="89">
         <v>58.4</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69">
-        <v>0</v>
-      </c>
-      <c r="H7" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="69"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67">
+        <v>0</v>
+      </c>
+      <c r="H7" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="67"/>
       <c r="K7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="126"/>
-      <c r="C8" s="124"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="47" t="s">
         <v>71</v>
       </c>
@@ -3836,8 +3825,8 @@
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="126"/>
-      <c r="C9" s="124"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="47" t="s">
         <v>72</v>
       </c>
@@ -3867,8 +3856,8 @@
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="126"/>
-      <c r="C10" s="124">
+      <c r="B10" s="123"/>
+      <c r="C10" s="121">
         <v>4</v>
       </c>
       <c r="D10" s="47" t="s">
@@ -3898,8 +3887,8 @@
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="126"/>
-      <c r="C11" s="124"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="47" t="s">
         <v>74</v>
       </c>
@@ -3927,8 +3916,8 @@
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="126"/>
-      <c r="C12" s="124"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="47" t="s">
         <v>75</v>
       </c>
@@ -3958,8 +3947,8 @@
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="126"/>
-      <c r="C13" s="124"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="53" t="s">
         <v>76</v>
       </c>
@@ -3987,8 +3976,8 @@
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="126"/>
-      <c r="C14" s="124">
+      <c r="B14" s="123"/>
+      <c r="C14" s="121">
         <v>5</v>
       </c>
       <c r="D14" s="47" t="s">
@@ -4018,8 +4007,8 @@
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="126"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="121"/>
       <c r="D15" s="47" t="s">
         <v>78</v>
       </c>
@@ -4047,8 +4036,8 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="126"/>
-      <c r="C16" s="124"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="47" t="s">
         <v>79</v>
       </c>
@@ -4076,37 +4065,37 @@
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="126"/>
-      <c r="C17" s="124"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="89">
         <v>76.430000000000007</v>
       </c>
-      <c r="F17" s="69">
+      <c r="F17" s="67">
         <v>2.5</v>
       </c>
-      <c r="G17" s="69">
-        <v>0</v>
-      </c>
-      <c r="H17" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="69"/>
+      <c r="G17" s="67">
+        <v>0</v>
+      </c>
+      <c r="H17" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="67"/>
       <c r="K17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="126"/>
-      <c r="C18" s="124">
+      <c r="B18" s="123"/>
+      <c r="C18" s="121">
         <v>6</v>
       </c>
       <c r="D18" s="47" t="s">
@@ -4136,8 +4125,8 @@
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="126"/>
-      <c r="C19" s="124"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="121"/>
       <c r="D19" s="47" t="s">
         <v>56</v>
       </c>
@@ -4165,8 +4154,8 @@
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="126"/>
-      <c r="C20" s="124"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="121"/>
       <c r="D20" s="47" t="s">
         <v>57</v>
       </c>
@@ -4194,8 +4183,8 @@
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="126"/>
-      <c r="C21" s="124"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="121"/>
       <c r="D21" s="47" t="s">
         <v>58</v>
       </c>
@@ -4225,8 +4214,8 @@
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="126"/>
-      <c r="C22" s="124">
+      <c r="B22" s="123"/>
+      <c r="C22" s="121">
         <v>7</v>
       </c>
       <c r="D22" s="47" t="s">
@@ -4256,8 +4245,8 @@
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="126"/>
-      <c r="C23" s="124"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="47" t="s">
         <v>82</v>
       </c>
@@ -4287,8 +4276,8 @@
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="126"/>
-      <c r="C24" s="124"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="47" t="s">
         <v>83</v>
       </c>
@@ -4318,8 +4307,8 @@
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="126"/>
-      <c r="C25" s="124"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="121"/>
       <c r="D25" s="47" t="s">
         <v>84</v>
       </c>
@@ -4347,37 +4336,37 @@
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="126"/>
-      <c r="C26" s="124">
+      <c r="B26" s="123"/>
+      <c r="C26" s="121">
         <v>8</v>
       </c>
       <c r="D26" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="91">
+      <c r="E26" s="89">
         <v>73.83</v>
       </c>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69">
-        <v>0</v>
-      </c>
-      <c r="H26" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="69"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67">
+        <v>0</v>
+      </c>
+      <c r="H26" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="67"/>
       <c r="K26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="126"/>
-      <c r="C27" s="124"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="121"/>
       <c r="D27" s="47" t="s">
         <v>86</v>
       </c>
@@ -4405,8 +4394,8 @@
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="126"/>
-      <c r="C28" s="124"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="121"/>
       <c r="D28" s="47" t="s">
         <v>87</v>
       </c>
@@ -4434,8 +4423,8 @@
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="126"/>
-      <c r="C29" s="124"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="47" t="s">
         <v>88</v>
       </c>
@@ -4463,8 +4452,8 @@
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="126"/>
-      <c r="C30" s="124">
+      <c r="B30" s="123"/>
+      <c r="C30" s="121">
         <v>9</v>
       </c>
       <c r="D30" s="47" t="s">
@@ -4494,8 +4483,8 @@
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="126"/>
-      <c r="C31" s="124"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="121"/>
       <c r="D31" s="47" t="s">
         <v>89</v>
       </c>
@@ -4523,8 +4512,8 @@
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="126"/>
-      <c r="C32" s="124"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="121"/>
       <c r="D32" s="47" t="s">
         <v>90</v>
       </c>
@@ -4552,8 +4541,8 @@
       </c>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="126"/>
-      <c r="C33" s="124"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="121"/>
       <c r="D33" s="47" t="s">
         <v>91</v>
       </c>
@@ -4581,8 +4570,8 @@
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="126"/>
-      <c r="C34" s="124">
+      <c r="B34" s="123"/>
+      <c r="C34" s="121">
         <v>10</v>
       </c>
       <c r="D34" s="47" t="s">
@@ -4614,8 +4603,8 @@
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="126"/>
-      <c r="C35" s="124"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="50" t="s">
         <v>92</v>
       </c>
@@ -4641,8 +4630,8 @@
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="126"/>
-      <c r="C36" s="124"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="50" t="s">
         <v>93</v>
       </c>
@@ -4668,8 +4657,8 @@
       </c>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="126"/>
-      <c r="C37" s="124"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="121"/>
       <c r="D37" s="47" t="s">
         <v>94</v>
       </c>
@@ -4712,7 +4701,7 @@
       </c>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="125">
+      <c r="B40" s="122">
         <v>2</v>
       </c>
       <c r="C40" s="51">
@@ -4740,7 +4729,7 @@
       </c>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="125"/>
+      <c r="B41" s="122"/>
       <c r="C41" s="51">
         <v>2</v>
       </c>
@@ -4766,7 +4755,7 @@
       </c>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="125"/>
+      <c r="B42" s="122"/>
       <c r="C42" s="51">
         <v>3</v>
       </c>
@@ -4792,7 +4781,7 @@
       </c>
     </row>
     <row r="43" spans="2:11" ht="64.5">
-      <c r="B43" s="125"/>
+      <c r="B43" s="122"/>
       <c r="C43" s="51">
         <v>4</v>
       </c>
@@ -4818,7 +4807,7 @@
       </c>
     </row>
     <row r="44" spans="2:11" ht="26.25">
-      <c r="B44" s="125"/>
+      <c r="B44" s="122"/>
       <c r="C44" s="51">
         <v>5</v>
       </c>
@@ -4844,7 +4833,7 @@
       </c>
     </row>
     <row r="45" spans="2:11" ht="26.25">
-      <c r="B45" s="125"/>
+      <c r="B45" s="122"/>
       <c r="C45" s="51">
         <v>6</v>
       </c>
@@ -4876,11 +4865,11 @@
       </c>
       <c r="H46">
         <f>SUM(H2:H45)</f>
-        <v>2078.7600000000002</v>
+        <v>2004.93</v>
       </c>
       <c r="I46">
         <f>SUM(I2:I45)</f>
-        <v>631943.03999999969</v>
+        <v>609498.71999999974</v>
       </c>
       <c r="J46">
         <f>SUM(J2:J45)</f>
@@ -4890,7 +4879,7 @@
     <row r="47" spans="2:11">
       <c r="J47">
         <f>J46*100/I46</f>
-        <v>95.180571970537144</v>
+        <v>98.685523080343842</v>
       </c>
     </row>
   </sheetData>
@@ -4915,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4960,10 +4949,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75">
-      <c r="A3" s="128">
+      <c r="A3" s="125">
         <v>3</v>
       </c>
-      <c r="B3" s="129">
+      <c r="B3" s="126">
         <v>2</v>
       </c>
       <c r="C3" s="59" t="s">
@@ -4995,8 +4984,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75">
-      <c r="A4" s="128"/>
-      <c r="B4" s="129"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="59" t="s">
         <v>103</v>
       </c>
@@ -5024,8 +5013,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75">
-      <c r="A5" s="128"/>
-      <c r="B5" s="129"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="59" t="s">
         <v>104</v>
       </c>
@@ -5053,13 +5042,13 @@
         <f t="shared" si="2"/>
         <v>-8.000000000174623E-2</v>
       </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15.75">
-      <c r="A6" s="128"/>
-      <c r="B6" s="129"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="59" t="s">
         <v>105</v>
       </c>
@@ -5085,16 +5074,16 @@
         <f t="shared" si="2"/>
         <v>1227.8399999999965</v>
       </c>
-      <c r="K6" s="106" t="s">
+      <c r="K6" s="104" t="s">
         <v>275</v>
       </c>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:14" ht="15.75">
-      <c r="A7" s="128"/>
-      <c r="B7" s="129"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="59" t="s">
         <v>106</v>
       </c>
@@ -5122,14 +5111,14 @@
         <f t="shared" si="2"/>
         <v>-0.43999999999869033</v>
       </c>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
       <c r="N7" s="25"/>
     </row>
     <row r="8" spans="1:14" ht="15.75">
-      <c r="A8" s="128"/>
-      <c r="B8" s="129">
+      <c r="A8" s="125"/>
+      <c r="B8" s="126">
         <v>3</v>
       </c>
       <c r="C8" s="59" t="s">
@@ -5159,29 +5148,29 @@
         <f t="shared" si="2"/>
         <v>22.719999999999345</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
       <c r="N8" s="25"/>
     </row>
     <row r="9" spans="1:14" ht="15.75">
-      <c r="A9" s="128"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="66" t="s">
+      <c r="A9" s="125"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="65">
         <v>37.36</v>
       </c>
       <c r="E9" s="52"/>
-      <c r="F9" s="66">
-        <v>1</v>
-      </c>
-      <c r="G9" s="67">
+      <c r="F9" s="64">
+        <v>1</v>
+      </c>
+      <c r="G9" s="65">
         <f t="shared" si="0"/>
         <v>37.36</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="66">
         <f t="shared" si="1"/>
         <v>11357.44</v>
       </c>
@@ -5190,14 +5179,14 @@
         <f t="shared" si="2"/>
         <v>-11357.44</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
       <c r="N9" s="25"/>
     </row>
     <row r="10" spans="1:14" ht="15.75">
-      <c r="A10" s="128"/>
-      <c r="B10" s="129"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="59" t="s">
         <v>109</v>
       </c>
@@ -5225,14 +5214,14 @@
         <f t="shared" si="2"/>
         <v>-8.000000000174623E-2</v>
       </c>
-      <c r="K10" s="107"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
       <c r="N10" s="25"/>
     </row>
     <row r="11" spans="1:14" ht="15.75">
-      <c r="A11" s="128"/>
-      <c r="B11" s="129"/>
+      <c r="A11" s="125"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="59" t="s">
         <v>54</v>
       </c>
@@ -5258,14 +5247,14 @@
         <f t="shared" si="2"/>
         <v>-0.16000000000349246</v>
       </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
       <c r="N11" s="25"/>
     </row>
     <row r="12" spans="1:14" ht="15.75">
-      <c r="A12" s="128"/>
-      <c r="B12" s="129"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="59" t="s">
         <v>110</v>
       </c>
@@ -5291,35 +5280,35 @@
         <f t="shared" si="2"/>
         <v>0.56000000000130967</v>
       </c>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
       <c r="N12" s="25"/>
     </row>
     <row r="13" spans="1:14" ht="15.75">
-      <c r="A13" s="128"/>
-      <c r="B13" s="129">
+      <c r="A13" s="125"/>
+      <c r="B13" s="126">
         <v>4</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="65">
         <v>36.57</v>
       </c>
       <c r="E13" s="52"/>
-      <c r="F13" s="66">
-        <v>0</v>
-      </c>
-      <c r="G13" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="69"/>
+      <c r="F13" s="64">
+        <v>0</v>
+      </c>
+      <c r="G13" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="67"/>
       <c r="J13" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5330,8 +5319,8 @@
       <c r="N13" s="25"/>
     </row>
     <row r="14" spans="1:14" ht="15.75">
-      <c r="A14" s="128"/>
-      <c r="B14" s="129"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="59" t="s">
         <v>112</v>
       </c>
@@ -5359,8 +5348,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75">
-      <c r="A15" s="128"/>
-      <c r="B15" s="129"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="59" t="s">
         <v>113</v>
       </c>
@@ -5388,8 +5377,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75">
-      <c r="A16" s="128"/>
-      <c r="B16" s="129"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="59" t="s">
         <v>114</v>
       </c>
@@ -5417,91 +5406,91 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="128"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="66" t="s">
+      <c r="A17" s="125"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="65">
         <v>79.11</v>
       </c>
       <c r="E17" s="52"/>
-      <c r="F17" s="66">
-        <v>0</v>
-      </c>
-      <c r="G17" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="69"/>
+      <c r="F17" s="64">
+        <v>0</v>
+      </c>
+      <c r="G17" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="67"/>
       <c r="J17" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75">
-      <c r="A18" s="128"/>
-      <c r="B18" s="129">
+      <c r="A18" s="125"/>
+      <c r="B18" s="126">
         <v>5</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="65">
         <v>36.57</v>
       </c>
       <c r="E18" s="52"/>
       <c r="F18" s="52">
         <v>0</v>
       </c>
-      <c r="G18" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="69"/>
+      <c r="G18" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="67"/>
       <c r="J18" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75">
-      <c r="A19" s="128"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="66" t="s">
+      <c r="A19" s="125"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="65">
         <v>37.36</v>
       </c>
       <c r="E19" s="52"/>
       <c r="F19" s="52">
         <v>0</v>
       </c>
-      <c r="G19" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="69"/>
+      <c r="G19" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="67"/>
       <c r="J19" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75">
-      <c r="A20" s="128"/>
-      <c r="B20" s="129"/>
+      <c r="A20" s="125"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="59" t="s">
         <v>117</v>
       </c>
@@ -5529,8 +5518,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75">
-      <c r="A21" s="128"/>
-      <c r="B21" s="129"/>
+      <c r="A21" s="125"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="59" t="s">
         <v>118</v>
       </c>
@@ -5558,8 +5547,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75">
-      <c r="A22" s="128"/>
-      <c r="B22" s="129"/>
+      <c r="A22" s="125"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="59" t="s">
         <v>119</v>
       </c>
@@ -5589,8 +5578,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75">
-      <c r="A23" s="128"/>
-      <c r="B23" s="129">
+      <c r="A23" s="125"/>
+      <c r="B23" s="126">
         <v>6</v>
       </c>
       <c r="C23" s="59" t="s">
@@ -5622,8 +5611,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
-      <c r="A24" s="128"/>
-      <c r="B24" s="129"/>
+      <c r="A24" s="125"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="59" t="s">
         <v>121</v>
       </c>
@@ -5653,8 +5642,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="128"/>
-      <c r="B25" s="129"/>
+      <c r="A25" s="125"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="59" t="s">
         <v>122</v>
       </c>
@@ -5682,8 +5671,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="128"/>
-      <c r="B26" s="129"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="59" t="s">
         <v>123</v>
       </c>
@@ -5711,8 +5700,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="128"/>
-      <c r="B27" s="129"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="59" t="s">
         <v>124</v>
       </c>
@@ -5740,8 +5729,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75">
-      <c r="A28" s="128"/>
-      <c r="B28" s="129">
+      <c r="A28" s="125"/>
+      <c r="B28" s="126">
         <v>7</v>
       </c>
       <c r="C28" s="59" t="s">
@@ -5771,8 +5760,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75">
-      <c r="A29" s="128"/>
-      <c r="B29" s="129"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="59" t="s">
         <v>126</v>
       </c>
@@ -5800,8 +5789,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75">
-      <c r="A30" s="128"/>
-      <c r="B30" s="129"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="59" t="s">
         <v>127</v>
       </c>
@@ -5831,8 +5820,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="128"/>
-      <c r="B31" s="129"/>
+      <c r="A31" s="125"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="59" t="s">
         <v>128</v>
       </c>
@@ -5860,8 +5849,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75">
-      <c r="A32" s="128"/>
-      <c r="B32" s="129"/>
+      <c r="A32" s="125"/>
+      <c r="B32" s="126"/>
       <c r="C32" s="59" t="s">
         <v>129</v>
       </c>
@@ -5889,8 +5878,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75">
-      <c r="A33" s="128"/>
-      <c r="B33" s="129">
+      <c r="A33" s="125"/>
+      <c r="B33" s="126">
         <v>8</v>
       </c>
       <c r="C33" s="59" t="s">
@@ -5920,8 +5909,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75">
-      <c r="A34" s="128"/>
-      <c r="B34" s="129"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="126"/>
       <c r="C34" s="59" t="s">
         <v>48</v>
       </c>
@@ -5951,8 +5940,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75">
-      <c r="A35" s="128"/>
-      <c r="B35" s="129"/>
+      <c r="A35" s="125"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="59" t="s">
         <v>131</v>
       </c>
@@ -5980,8 +5969,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75">
-      <c r="A36" s="128"/>
-      <c r="B36" s="129"/>
+      <c r="A36" s="125"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="59" t="s">
         <v>132</v>
       </c>
@@ -6009,8 +5998,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75">
-      <c r="A37" s="128"/>
-      <c r="B37" s="129"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="126"/>
       <c r="C37" s="59" t="s">
         <v>133</v>
       </c>
@@ -6040,8 +6029,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75">
-      <c r="A38" s="128"/>
-      <c r="B38" s="129">
+      <c r="A38" s="125"/>
+      <c r="B38" s="126">
         <v>9</v>
       </c>
       <c r="C38" s="59" t="s">
@@ -6071,8 +6060,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75">
-      <c r="A39" s="128"/>
-      <c r="B39" s="129"/>
+      <c r="A39" s="125"/>
+      <c r="B39" s="126"/>
       <c r="C39" s="59" t="s">
         <v>135</v>
       </c>
@@ -6100,8 +6089,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75">
-      <c r="A40" s="128"/>
-      <c r="B40" s="129"/>
+      <c r="A40" s="125"/>
+      <c r="B40" s="126"/>
       <c r="C40" s="59" t="s">
         <v>135</v>
       </c>
@@ -6129,35 +6118,35 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75">
-      <c r="A41" s="128"/>
-      <c r="B41" s="129"/>
-      <c r="C41" s="63" t="s">
+      <c r="A41" s="125"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="64">
+      <c r="D41" s="136">
         <v>65.040000000000006</v>
       </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="63">
-        <v>1</v>
-      </c>
-      <c r="G41" s="64">
+      <c r="E41" s="96"/>
+      <c r="F41" s="135">
+        <v>1</v>
+      </c>
+      <c r="G41" s="136">
         <f t="shared" si="0"/>
         <v>65.040000000000006</v>
       </c>
-      <c r="H41" s="65">
+      <c r="H41" s="63">
         <f t="shared" si="1"/>
         <v>19772.160000000003</v>
       </c>
-      <c r="I41" s="46"/>
+      <c r="I41" s="98"/>
       <c r="J41" s="46">
         <f t="shared" si="2"/>
         <v>-19772.160000000003</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="128"/>
-      <c r="B42" s="129"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="59" t="s">
         <v>137</v>
       </c>
@@ -6187,37 +6176,37 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A43" s="128"/>
-      <c r="B43" s="129" t="s">
+      <c r="A43" s="125"/>
+      <c r="B43" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="67">
+      <c r="D43" s="65">
         <v>36.57</v>
       </c>
       <c r="E43" s="52"/>
-      <c r="F43" s="66">
-        <v>0</v>
-      </c>
-      <c r="G43" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="69"/>
+      <c r="F43" s="64">
+        <v>0</v>
+      </c>
+      <c r="G43" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="67"/>
       <c r="J43" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75">
-      <c r="A44" s="128"/>
-      <c r="B44" s="129"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="59" t="s">
         <v>140</v>
       </c>
@@ -6244,8 +6233,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75">
-      <c r="A45" s="128"/>
-      <c r="B45" s="129"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="126"/>
       <c r="C45" s="59" t="s">
         <v>141</v>
       </c>
@@ -6273,35 +6262,35 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="128"/>
-      <c r="B46" s="129"/>
-      <c r="C46" s="63" t="s">
+      <c r="A46" s="125"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="64">
+      <c r="D46" s="136">
         <v>65.040000000000006</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="63">
-        <v>1</v>
-      </c>
-      <c r="G46" s="64">
+      <c r="E46" s="96"/>
+      <c r="F46" s="135">
+        <v>1</v>
+      </c>
+      <c r="G46" s="136">
         <f t="shared" si="0"/>
         <v>65.040000000000006</v>
       </c>
-      <c r="H46" s="65">
+      <c r="H46" s="63">
         <f t="shared" si="1"/>
         <v>19772.160000000003</v>
       </c>
-      <c r="I46" s="46"/>
+      <c r="I46" s="98"/>
       <c r="J46" s="46">
         <f t="shared" si="2"/>
         <v>-19772.160000000003</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75">
-      <c r="A47" s="128"/>
-      <c r="B47" s="129"/>
+      <c r="A47" s="125"/>
+      <c r="B47" s="126"/>
       <c r="C47" s="59" t="s">
         <v>142</v>
       </c>
@@ -6363,15 +6352,15 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="71" t="s">
+      <c r="A50" s="68"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
       <c r="H50" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6382,51 +6371,51 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="51">
-      <c r="A51" s="127">
+      <c r="A51" s="124">
         <v>3</v>
       </c>
-      <c r="B51" s="73">
-        <v>1</v>
-      </c>
-      <c r="C51" s="74" t="s">
+      <c r="B51" s="71">
+        <v>1</v>
+      </c>
+      <c r="C51" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="73">
+      <c r="D51" s="71">
         <v>38.5</v>
       </c>
-      <c r="E51" s="74"/>
-      <c r="F51" s="73">
-        <v>1</v>
-      </c>
-      <c r="G51" s="73">
+      <c r="E51" s="72"/>
+      <c r="F51" s="71">
+        <v>1</v>
+      </c>
+      <c r="G51" s="71">
         <v>38.5</v>
       </c>
-      <c r="H51" s="65">
+      <c r="H51" s="63">
         <f t="shared" si="1"/>
         <v>11704</v>
       </c>
-      <c r="I51" s="75"/>
+      <c r="I51" s="73"/>
       <c r="J51" s="46">
         <f t="shared" si="2"/>
         <v>-11704</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="127"/>
-      <c r="B52" s="73">
+      <c r="A52" s="124"/>
+      <c r="B52" s="71">
         <v>2</v>
       </c>
-      <c r="C52" s="79" t="s">
+      <c r="C52" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="80">
+      <c r="D52" s="78">
         <v>43.49</v>
       </c>
-      <c r="E52" s="79"/>
-      <c r="F52" s="80">
-        <v>1</v>
-      </c>
-      <c r="G52" s="80">
+      <c r="E52" s="77"/>
+      <c r="F52" s="78">
+        <v>1</v>
+      </c>
+      <c r="G52" s="78">
         <f>D52*F52</f>
         <v>43.49</v>
       </c>
@@ -6434,7 +6423,7 @@
         <f t="shared" si="1"/>
         <v>13220.960000000001</v>
       </c>
-      <c r="I52" s="81">
+      <c r="I52" s="79">
         <v>13221</v>
       </c>
       <c r="J52" s="46">
@@ -6443,50 +6432,50 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="127"/>
-      <c r="B53" s="73">
+      <c r="A53" s="124"/>
+      <c r="B53" s="71">
         <v>3</v>
       </c>
-      <c r="C53" s="76" t="s">
+      <c r="C53" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="77">
+      <c r="D53" s="75">
         <v>18.670000000000002</v>
       </c>
-      <c r="E53" s="76"/>
-      <c r="F53" s="77">
-        <v>0</v>
-      </c>
-      <c r="G53" s="77">
+      <c r="E53" s="74"/>
+      <c r="F53" s="75">
+        <v>0</v>
+      </c>
+      <c r="G53" s="75">
         <f t="shared" ref="G53:G60" si="3">D53*F53</f>
         <v>0</v>
       </c>
-      <c r="H53" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="78"/>
+      <c r="H53" s="66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="76"/>
       <c r="J53" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="127"/>
-      <c r="B54" s="73">
+      <c r="A54" s="124"/>
+      <c r="B54" s="71">
         <v>4</v>
       </c>
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="80">
+      <c r="D54" s="78">
         <v>18.45</v>
       </c>
-      <c r="E54" s="79"/>
-      <c r="F54" s="80">
-        <v>1</v>
-      </c>
-      <c r="G54" s="80">
+      <c r="E54" s="77"/>
+      <c r="F54" s="78">
+        <v>1</v>
+      </c>
+      <c r="G54" s="78">
         <f t="shared" si="3"/>
         <v>18.45</v>
       </c>
@@ -6494,7 +6483,7 @@
         <f t="shared" si="1"/>
         <v>5608.8</v>
       </c>
-      <c r="I54" s="81">
+      <c r="I54" s="79">
         <v>5610</v>
       </c>
       <c r="J54" s="46">
@@ -6503,21 +6492,21 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="127"/>
-      <c r="B55" s="73">
+      <c r="A55" s="124"/>
+      <c r="B55" s="71">
         <v>5</v>
       </c>
-      <c r="C55" s="79" t="s">
+      <c r="C55" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="D55" s="80">
+      <c r="D55" s="78">
         <v>40.32</v>
       </c>
-      <c r="E55" s="79"/>
-      <c r="F55" s="80">
-        <v>1</v>
-      </c>
-      <c r="G55" s="80">
+      <c r="E55" s="77"/>
+      <c r="F55" s="78">
+        <v>1</v>
+      </c>
+      <c r="G55" s="78">
         <f t="shared" si="3"/>
         <v>40.32</v>
       </c>
@@ -6525,7 +6514,7 @@
         <f t="shared" si="1"/>
         <v>12257.28</v>
       </c>
-      <c r="I55" s="81">
+      <c r="I55" s="79">
         <v>12257</v>
       </c>
       <c r="J55" s="46">
@@ -6534,79 +6523,79 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="51">
-      <c r="A56" s="127"/>
-      <c r="B56" s="73">
+      <c r="A56" s="124"/>
+      <c r="B56" s="71">
         <v>6</v>
       </c>
-      <c r="C56" s="74" t="s">
+      <c r="C56" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="73">
+      <c r="D56" s="71">
         <v>29.25</v>
       </c>
-      <c r="E56" s="74"/>
-      <c r="F56" s="73">
-        <v>1</v>
-      </c>
-      <c r="G56" s="73">
+      <c r="E56" s="72"/>
+      <c r="F56" s="71">
+        <v>1</v>
+      </c>
+      <c r="G56" s="71">
         <f t="shared" si="3"/>
         <v>29.25</v>
       </c>
-      <c r="H56" s="65">
+      <c r="H56" s="63">
         <f t="shared" si="1"/>
         <v>8892</v>
       </c>
-      <c r="I56" s="75"/>
+      <c r="I56" s="73"/>
       <c r="J56" s="46">
         <f t="shared" si="2"/>
         <v>-8892</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="127"/>
-      <c r="B57" s="73">
+      <c r="A57" s="124"/>
+      <c r="B57" s="71">
         <v>7</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="77">
+      <c r="D57" s="75">
         <v>18.43</v>
       </c>
-      <c r="E57" s="76"/>
-      <c r="F57" s="77">
-        <v>0</v>
-      </c>
-      <c r="G57" s="77">
+      <c r="E57" s="74"/>
+      <c r="F57" s="75">
+        <v>0</v>
+      </c>
+      <c r="G57" s="75">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H57" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="78"/>
+      <c r="H57" s="66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="76"/>
       <c r="J57" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="127"/>
-      <c r="B58" s="73">
+      <c r="A58" s="124"/>
+      <c r="B58" s="71">
         <v>8</v>
       </c>
-      <c r="C58" s="79" t="s">
+      <c r="C58" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="80">
+      <c r="D58" s="78">
         <v>18.399999999999999</v>
       </c>
-      <c r="E58" s="79"/>
-      <c r="F58" s="80">
-        <v>1</v>
-      </c>
-      <c r="G58" s="80">
+      <c r="E58" s="77"/>
+      <c r="F58" s="78">
+        <v>1</v>
+      </c>
+      <c r="G58" s="78">
         <f t="shared" si="3"/>
         <v>18.399999999999999</v>
       </c>
@@ -6614,7 +6603,7 @@
         <f t="shared" si="1"/>
         <v>5593.5999999999995</v>
       </c>
-      <c r="I58" s="81">
+      <c r="I58" s="79">
         <v>5600</v>
       </c>
       <c r="J58" s="46">
@@ -6623,21 +6612,21 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="127"/>
-      <c r="B59" s="73">
+      <c r="A59" s="124"/>
+      <c r="B59" s="71">
         <v>9</v>
       </c>
-      <c r="C59" s="79" t="s">
+      <c r="C59" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="80">
+      <c r="D59" s="78">
         <v>40.299999999999997</v>
       </c>
-      <c r="E59" s="79"/>
-      <c r="F59" s="80">
-        <v>1</v>
-      </c>
-      <c r="G59" s="80">
+      <c r="E59" s="77"/>
+      <c r="F59" s="78">
+        <v>1</v>
+      </c>
+      <c r="G59" s="78">
         <f t="shared" si="3"/>
         <v>40.299999999999997</v>
       </c>
@@ -6645,7 +6634,7 @@
         <f t="shared" si="1"/>
         <v>12251.199999999999</v>
       </c>
-      <c r="I59" s="81">
+      <c r="I59" s="79">
         <v>12251</v>
       </c>
       <c r="J59" s="46">
@@ -6654,21 +6643,21 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="127"/>
-      <c r="B60" s="73">
+      <c r="A60" s="124"/>
+      <c r="B60" s="71">
         <v>10</v>
       </c>
-      <c r="C60" s="79" t="s">
+      <c r="C60" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="80">
+      <c r="D60" s="78">
         <v>40.18</v>
       </c>
-      <c r="E60" s="79"/>
-      <c r="F60" s="80">
-        <v>1</v>
-      </c>
-      <c r="G60" s="80">
+      <c r="E60" s="77"/>
+      <c r="F60" s="78">
+        <v>1</v>
+      </c>
+      <c r="G60" s="78">
         <f t="shared" si="3"/>
         <v>40.18</v>
       </c>
@@ -6676,7 +6665,7 @@
         <f t="shared" si="1"/>
         <v>12214.72</v>
       </c>
-      <c r="I60" s="81">
+      <c r="I60" s="79">
         <v>12214</v>
       </c>
       <c r="J60" s="46">
@@ -6688,14 +6677,14 @@
       <c r="A61" s="54"/>
       <c r="B61" s="54"/>
       <c r="C61" s="54"/>
-      <c r="D61" s="72"/>
+      <c r="D61" s="70"/>
       <c r="E61" s="54"/>
       <c r="F61" s="54"/>
-      <c r="G61" s="72">
+      <c r="G61" s="70">
         <f>SUM(G3:G60)</f>
         <v>2559.8599999999992</v>
       </c>
-      <c r="H61" s="92">
+      <c r="H61" s="90">
         <f>SUM(H3:H60)</f>
         <v>778197.43999999971</v>
       </c>
@@ -6740,8 +6729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6777,98 +6766,98 @@
       <c r="I1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="95" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="126">
+      <c r="A2" s="123">
         <v>4</v>
       </c>
-      <c r="B2" s="124">
+      <c r="B2" s="121">
         <v>2</v>
       </c>
       <c r="C2" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="91">
+      <c r="D2" s="89">
         <v>60.75</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69">
-        <v>0</v>
-      </c>
-      <c r="G2" s="69">
+      <c r="E2" s="67"/>
+      <c r="F2" s="67">
+        <v>0</v>
+      </c>
+      <c r="G2" s="67">
         <f>(D2+E2)*F2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="69">
+      <c r="H2" s="67">
         <f>G2*304</f>
         <v>0</v>
       </c>
-      <c r="I2" s="69"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="46">
         <f>I2-H2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="126"/>
-      <c r="B3" s="124"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="91">
+      <c r="D3" s="89">
         <v>54.16</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69">
-        <v>0</v>
-      </c>
-      <c r="G3" s="69">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67">
+        <v>0</v>
+      </c>
+      <c r="G3" s="67">
         <f t="shared" ref="G3:G28" si="0">(D3+E3)*F3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="67">
         <f t="shared" ref="H3:H35" si="1">G3*304</f>
         <v>0</v>
       </c>
-      <c r="I3" s="69"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="46">
         <f t="shared" ref="J3:J35" si="2">I3-H3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="126"/>
-      <c r="B4" s="124"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="91">
+      <c r="D4" s="89">
         <v>75.510000000000005</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69">
-        <v>0</v>
-      </c>
-      <c r="G4" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="69"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67">
+        <v>0</v>
+      </c>
+      <c r="G4" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="67"/>
       <c r="J4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="126"/>
-      <c r="B5" s="124">
+      <c r="A5" s="123"/>
+      <c r="B5" s="121">
         <v>3</v>
       </c>
       <c r="C5" s="47" t="s">
@@ -6898,9 +6887,9 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="126"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="108" t="s">
+      <c r="A6" s="123"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="106" t="s">
         <v>154</v>
       </c>
       <c r="D6" s="48">
@@ -6927,8 +6916,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="126"/>
-      <c r="B7" s="124"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="47" t="s">
         <v>155</v>
       </c>
@@ -6956,8 +6945,8 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="126"/>
-      <c r="B8" s="124">
+      <c r="A8" s="123"/>
+      <c r="B8" s="121">
         <v>4</v>
       </c>
       <c r="C8" s="47" t="s">
@@ -6987,8 +6976,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="126"/>
-      <c r="B9" s="124"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="44" t="s">
         <v>157</v>
       </c>
@@ -7014,8 +7003,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="126"/>
-      <c r="B10" s="124"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="47" t="s">
         <v>158</v>
       </c>
@@ -7045,8 +7034,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="126"/>
-      <c r="B11" s="124">
+      <c r="A11" s="123"/>
+      <c r="B11" s="121">
         <v>5</v>
       </c>
       <c r="C11" s="47" t="s">
@@ -7076,8 +7065,8 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="126"/>
-      <c r="B12" s="124"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="47" t="s">
         <v>160</v>
       </c>
@@ -7105,8 +7094,8 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="126"/>
-      <c r="B13" s="124"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="47" t="s">
         <v>161</v>
       </c>
@@ -7134,8 +7123,8 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="126"/>
-      <c r="B14" s="124">
+      <c r="A14" s="123"/>
+      <c r="B14" s="121">
         <v>6</v>
       </c>
       <c r="C14" s="47" t="s">
@@ -7165,8 +7154,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="126"/>
-      <c r="B15" s="124"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="47" t="s">
         <v>176</v>
       </c>
@@ -7194,8 +7183,8 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="126"/>
-      <c r="B16" s="124"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="47" t="s">
         <v>163</v>
       </c>
@@ -7223,8 +7212,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="126"/>
-      <c r="B17" s="124">
+      <c r="A17" s="123"/>
+      <c r="B17" s="121">
         <v>7</v>
       </c>
       <c r="C17" s="47" t="s">
@@ -7254,9 +7243,9 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="126"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="109" t="s">
+      <c r="A18" s="123"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="107" t="s">
         <v>165</v>
       </c>
       <c r="D18" s="45">
@@ -7281,35 +7270,35 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="126"/>
-      <c r="B19" s="124"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="89">
         <v>75.510000000000005</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69">
-        <v>0</v>
-      </c>
-      <c r="G19" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="69"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67">
+        <v>0</v>
+      </c>
+      <c r="G19" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="67"/>
       <c r="J19" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="126"/>
-      <c r="B20" s="124">
+      <c r="A20" s="123"/>
+      <c r="B20" s="121">
         <v>8</v>
       </c>
       <c r="C20" s="47" t="s">
@@ -7339,8 +7328,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="126"/>
-      <c r="B21" s="124"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="47" t="s">
         <v>168</v>
       </c>
@@ -7368,8 +7357,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="126"/>
-      <c r="B22" s="124"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="47" t="s">
         <v>169</v>
       </c>
@@ -7397,8 +7386,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="126"/>
-      <c r="B23" s="124">
+      <c r="A23" s="123"/>
+      <c r="B23" s="121">
         <v>9</v>
       </c>
       <c r="C23" s="47" t="s">
@@ -7430,8 +7419,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="126"/>
-      <c r="B24" s="124"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="121"/>
       <c r="C24" s="47" t="s">
         <v>171</v>
       </c>
@@ -7459,8 +7448,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="126"/>
-      <c r="B25" s="124"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="121"/>
       <c r="C25" s="47" t="s">
         <v>172</v>
       </c>
@@ -7488,64 +7477,64 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="126"/>
-      <c r="B26" s="124">
+      <c r="A26" s="123"/>
+      <c r="B26" s="121">
         <v>10</v>
       </c>
       <c r="C26" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="91">
+      <c r="D26" s="89">
         <v>60.75</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69">
-        <v>0</v>
-      </c>
-      <c r="G26" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="69"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67">
+        <v>0</v>
+      </c>
+      <c r="G26" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="67"/>
       <c r="J26" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="126"/>
-      <c r="B27" s="124"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="D27" s="91">
+      <c r="D27" s="89">
         <v>54.16</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69">
-        <v>0</v>
-      </c>
-      <c r="G27" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="69"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67">
+        <v>0</v>
+      </c>
+      <c r="G27" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="67"/>
       <c r="J27" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="126"/>
-      <c r="B28" s="124"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="47" t="s">
         <v>175</v>
       </c>
@@ -7579,7 +7568,7 @@
       <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="125">
+      <c r="A31" s="122">
         <v>4</v>
       </c>
       <c r="B31" s="51">
@@ -7588,36 +7577,36 @@
       <c r="C31" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="110">
+      <c r="D31" s="108">
         <v>34.21</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69">
-        <v>0</v>
-      </c>
-      <c r="G31" s="69">
+      <c r="E31" s="67"/>
+      <c r="F31" s="67">
+        <v>0</v>
+      </c>
+      <c r="G31" s="67">
         <f>D31*F31</f>
         <v>0</v>
       </c>
-      <c r="H31" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="69"/>
+      <c r="H31" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="67"/>
       <c r="J31" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="125"/>
+      <c r="A32" s="122"/>
       <c r="B32" s="51">
         <v>2</v>
       </c>
       <c r="C32" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="D32" s="111">
+      <c r="D32" s="109">
         <v>39.18</v>
       </c>
       <c r="E32" s="49"/>
@@ -7641,36 +7630,36 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="125"/>
+      <c r="A33" s="122"/>
       <c r="B33" s="51">
         <v>3</v>
       </c>
       <c r="C33" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="110">
+      <c r="D33" s="108">
         <v>35.200000000000003</v>
       </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69">
-        <v>0</v>
-      </c>
-      <c r="G33" s="69">
+      <c r="E33" s="67"/>
+      <c r="F33" s="67">
+        <v>0</v>
+      </c>
+      <c r="G33" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H33" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="69"/>
+      <c r="H33" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="67"/>
       <c r="J33" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="125"/>
+      <c r="A34" s="122"/>
       <c r="B34" s="51">
         <v>4</v>
       </c>
@@ -7699,14 +7688,14 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="26.25">
-      <c r="A35" s="125"/>
+      <c r="A35" s="122"/>
       <c r="B35" s="51">
         <v>5</v>
       </c>
       <c r="C35" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="111">
+      <c r="D35" s="109">
         <v>39.369999999999997</v>
       </c>
       <c r="E35" s="49"/>
@@ -7768,7 +7757,7 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection sqref="A1:K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7804,15 +7793,15 @@
       <c r="I1" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="96" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="126">
+      <c r="A2" s="123">
         <v>5</v>
       </c>
-      <c r="B2" s="133">
+      <c r="B2" s="130">
         <v>2</v>
       </c>
       <c r="C2" s="47" t="s">
@@ -7842,8 +7831,8 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="126"/>
-      <c r="B3" s="133"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="130"/>
       <c r="C3" s="47" t="s">
         <v>182</v>
       </c>
@@ -7871,8 +7860,8 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="126"/>
-      <c r="B4" s="133"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="47" t="s">
         <v>183</v>
       </c>
@@ -7900,8 +7889,8 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="126"/>
-      <c r="B5" s="133"/>
+      <c r="A5" s="123"/>
+      <c r="B5" s="130"/>
       <c r="C5" s="47" t="s">
         <v>184</v>
       </c>
@@ -7927,13 +7916,13 @@
         <f t="shared" si="0"/>
         <v>3.6000000000003638</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="126"/>
-      <c r="B6" s="133"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="47" t="s">
         <v>182</v>
       </c>
@@ -7961,8 +7950,8 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="126"/>
-      <c r="B7" s="133"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="47" t="s">
         <v>185</v>
       </c>
@@ -7990,8 +7979,8 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="126"/>
-      <c r="B8" s="133">
+      <c r="A8" s="123"/>
+      <c r="B8" s="130">
         <v>3</v>
       </c>
       <c r="C8" s="47" t="s">
@@ -8021,8 +8010,8 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="126"/>
-      <c r="B9" s="133"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="47" t="s">
         <v>112</v>
       </c>
@@ -8050,8 +8039,8 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="126"/>
-      <c r="B10" s="133"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="47" t="s">
         <v>187</v>
       </c>
@@ -8079,8 +8068,8 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="126"/>
-      <c r="B11" s="133"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="47" t="s">
         <v>188</v>
       </c>
@@ -8108,8 +8097,8 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="126"/>
-      <c r="B12" s="133"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="47" t="s">
         <v>189</v>
       </c>
@@ -8139,35 +8128,35 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="126"/>
-      <c r="B13" s="133"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="89">
         <v>58.32</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69">
-        <v>0</v>
-      </c>
-      <c r="G13" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="69"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67">
+        <v>0</v>
+      </c>
+      <c r="G13" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="67"/>
       <c r="J13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="126"/>
-      <c r="B14" s="124">
+      <c r="A14" s="123"/>
+      <c r="B14" s="121">
         <v>4</v>
       </c>
       <c r="C14" s="47" t="s">
@@ -8199,9 +8188,9 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="126"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="99" t="s">
+      <c r="A15" s="123"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="97" t="s">
         <v>192</v>
       </c>
       <c r="D15" s="48">
@@ -8222,14 +8211,14 @@
       <c r="I15" s="49">
         <v>11187</v>
       </c>
-      <c r="J15" s="100">
+      <c r="J15" s="98">
         <f t="shared" si="0"/>
         <v>-0.19999999999890861</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="126"/>
-      <c r="B16" s="124"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="47" t="s">
         <v>193</v>
       </c>
@@ -8257,8 +8246,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="126"/>
-      <c r="B17" s="124"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="47" t="s">
         <v>194</v>
       </c>
@@ -8286,8 +8275,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="126"/>
-      <c r="B18" s="124"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="47" t="s">
         <v>195</v>
       </c>
@@ -8317,35 +8306,35 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="126"/>
-      <c r="B19" s="124"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="89">
         <v>58.32</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69">
-        <v>0</v>
-      </c>
-      <c r="G19" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="69"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67">
+        <v>0</v>
+      </c>
+      <c r="G19" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="67"/>
       <c r="J19" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="126"/>
-      <c r="B20" s="124">
+      <c r="A20" s="123"/>
+      <c r="B20" s="121">
         <v>5</v>
       </c>
       <c r="C20" s="47" t="s">
@@ -8380,8 +8369,8 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="126"/>
-      <c r="B21" s="124"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="47" t="s">
         <v>198</v>
       </c>
@@ -8409,8 +8398,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="126"/>
-      <c r="B22" s="124"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="47" t="s">
         <v>199</v>
       </c>
@@ -8438,8 +8427,8 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="126"/>
-      <c r="B23" s="124"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="47" t="s">
         <v>200</v>
       </c>
@@ -8469,8 +8458,8 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="126"/>
-      <c r="B24" s="124"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="121"/>
       <c r="C24" s="44" t="s">
         <v>201</v>
       </c>
@@ -8496,8 +8485,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="24">
-      <c r="A25" s="126"/>
-      <c r="B25" s="124"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="121"/>
       <c r="C25" s="47" t="s">
         <v>202</v>
       </c>
@@ -8527,8 +8516,8 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="126"/>
-      <c r="B26" s="124">
+      <c r="A26" s="123"/>
+      <c r="B26" s="121">
         <v>6</v>
       </c>
       <c r="C26" s="47" t="s">
@@ -8558,8 +8547,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="126"/>
-      <c r="B27" s="124"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="47" t="s">
         <v>204</v>
       </c>
@@ -8587,8 +8576,8 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="126"/>
-      <c r="B28" s="124"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="47" t="s">
         <v>193</v>
       </c>
@@ -8618,8 +8607,8 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="126"/>
-      <c r="B29" s="124"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="121"/>
       <c r="C29" s="47" t="s">
         <v>205</v>
       </c>
@@ -8647,8 +8636,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="126"/>
-      <c r="B30" s="124"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="121"/>
       <c r="C30" s="44" t="s">
         <v>206</v>
       </c>
@@ -8674,8 +8663,8 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="126"/>
-      <c r="B31" s="124"/>
+      <c r="A31" s="123"/>
+      <c r="B31" s="121"/>
       <c r="C31" s="47" t="s">
         <v>207</v>
       </c>
@@ -8703,8 +8692,8 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="126"/>
-      <c r="B32" s="124">
+      <c r="A32" s="123"/>
+      <c r="B32" s="121">
         <v>7</v>
       </c>
       <c r="C32" s="47" t="s">
@@ -8734,8 +8723,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="126"/>
-      <c r="B33" s="124"/>
+      <c r="A33" s="123"/>
+      <c r="B33" s="121"/>
       <c r="C33" s="47" t="s">
         <v>209</v>
       </c>
@@ -8763,8 +8752,8 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="126"/>
-      <c r="B34" s="124"/>
+      <c r="A34" s="123"/>
+      <c r="B34" s="121"/>
       <c r="C34" s="47" t="s">
         <v>210</v>
       </c>
@@ -8792,8 +8781,8 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="126"/>
-      <c r="B35" s="124"/>
+      <c r="A35" s="123"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="47" t="s">
         <v>211</v>
       </c>
@@ -8821,8 +8810,8 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="126"/>
-      <c r="B36" s="124"/>
+      <c r="A36" s="123"/>
+      <c r="B36" s="121"/>
       <c r="C36" s="47" t="s">
         <v>212</v>
       </c>
@@ -8850,8 +8839,8 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="126"/>
-      <c r="B37" s="124"/>
+      <c r="A37" s="123"/>
+      <c r="B37" s="121"/>
       <c r="C37" s="47" t="s">
         <v>213</v>
       </c>
@@ -8879,8 +8868,8 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="126"/>
-      <c r="B38" s="124">
+      <c r="A38" s="123"/>
+      <c r="B38" s="121">
         <v>8</v>
       </c>
       <c r="C38" s="47" t="s">
@@ -8910,66 +8899,66 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="126"/>
-      <c r="B39" s="124"/>
+      <c r="A39" s="123"/>
+      <c r="B39" s="121"/>
       <c r="C39" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="D39" s="91">
+      <c r="D39" s="89">
         <v>36.799999999999997</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="67">
         <v>2.5</v>
       </c>
-      <c r="F39" s="69">
-        <v>0</v>
-      </c>
-      <c r="G39" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="69"/>
+      <c r="F39" s="67">
+        <v>0</v>
+      </c>
+      <c r="G39" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="67"/>
       <c r="J39" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="126"/>
-      <c r="B40" s="124"/>
-      <c r="C40" s="101" t="s">
+      <c r="A40" s="123"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="99" t="s">
         <v>216</v>
       </c>
-      <c r="D40" s="102">
+      <c r="D40" s="100">
         <v>65.08</v>
       </c>
-      <c r="E40" s="100">
+      <c r="E40" s="98">
         <v>2.5</v>
       </c>
-      <c r="F40" s="100">
-        <v>1</v>
-      </c>
-      <c r="G40" s="100">
+      <c r="F40" s="98">
+        <v>1</v>
+      </c>
+      <c r="G40" s="98">
         <f t="shared" si="1"/>
         <v>67.58</v>
       </c>
-      <c r="H40" s="100">
+      <c r="H40" s="98">
         <f t="shared" si="2"/>
         <v>20544.32</v>
       </c>
-      <c r="I40" s="100"/>
+      <c r="I40" s="98"/>
       <c r="J40" s="46">
         <f t="shared" si="0"/>
         <v>-20544.32</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="126"/>
-      <c r="B41" s="124"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="121"/>
       <c r="C41" s="47" t="s">
         <v>217</v>
       </c>
@@ -8997,8 +8986,8 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="126"/>
-      <c r="B42" s="124"/>
+      <c r="A42" s="123"/>
+      <c r="B42" s="121"/>
       <c r="C42" s="44" t="s">
         <v>218</v>
       </c>
@@ -9024,8 +9013,8 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="126"/>
-      <c r="B43" s="124"/>
+      <c r="A43" s="123"/>
+      <c r="B43" s="121"/>
       <c r="C43" s="47" t="s">
         <v>219</v>
       </c>
@@ -9053,8 +9042,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A44" s="126"/>
-      <c r="B44" s="124">
+      <c r="A44" s="123"/>
+      <c r="B44" s="121">
         <v>9</v>
       </c>
       <c r="C44" s="47" t="s">
@@ -9084,8 +9073,8 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="126"/>
-      <c r="B45" s="124"/>
+      <c r="A45" s="123"/>
+      <c r="B45" s="121"/>
       <c r="C45" s="47" t="s">
         <v>217</v>
       </c>
@@ -9113,8 +9102,8 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="126"/>
-      <c r="B46" s="124"/>
+      <c r="A46" s="123"/>
+      <c r="B46" s="121"/>
       <c r="C46" s="47" t="s">
         <v>221</v>
       </c>
@@ -9142,8 +9131,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="126"/>
-      <c r="B47" s="124"/>
+      <c r="A47" s="123"/>
+      <c r="B47" s="121"/>
       <c r="C47" s="47" t="s">
         <v>222</v>
       </c>
@@ -9171,8 +9160,8 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="126"/>
-      <c r="B48" s="124"/>
+      <c r="A48" s="123"/>
+      <c r="B48" s="121"/>
       <c r="C48" s="47" t="s">
         <v>223</v>
       </c>
@@ -9202,8 +9191,8 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="126"/>
-      <c r="B49" s="124"/>
+      <c r="A49" s="123"/>
+      <c r="B49" s="121"/>
       <c r="C49" s="44" t="s">
         <v>224</v>
       </c>
@@ -9229,70 +9218,70 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="126"/>
-      <c r="B50" s="124">
+      <c r="A50" s="123"/>
+      <c r="B50" s="121">
         <v>10</v>
       </c>
       <c r="C50" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="D50" s="91">
+      <c r="D50" s="89">
         <v>76.430000000000007</v>
       </c>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69">
-        <v>0</v>
-      </c>
-      <c r="G50" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="69"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67">
+        <v>0</v>
+      </c>
+      <c r="G50" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="67"/>
       <c r="J50" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K50" s="82">
+      <c r="K50" s="80">
         <v>0.7</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="126"/>
-      <c r="B51" s="124"/>
-      <c r="C51" s="103" t="s">
+      <c r="A51" s="123"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="D51" s="91">
+      <c r="D51" s="89">
         <v>36.799999999999997</v>
       </c>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69">
-        <v>0</v>
-      </c>
-      <c r="G51" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="69"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67">
+        <v>0</v>
+      </c>
+      <c r="G51" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="67"/>
       <c r="J51" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K51" s="82">
+      <c r="K51" s="80">
         <v>0.7</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="126"/>
-      <c r="B52" s="124"/>
+      <c r="A52" s="123"/>
+      <c r="B52" s="121"/>
       <c r="C52" s="47" t="s">
         <v>227</v>
       </c>
@@ -9318,73 +9307,73 @@
         <f t="shared" si="0"/>
         <v>-5931.1600000000035</v>
       </c>
-      <c r="K52" s="82">
+      <c r="K52" s="80">
         <v>0.7</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="126"/>
-      <c r="B53" s="124"/>
-      <c r="C53" s="104" t="s">
+      <c r="A53" s="123"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="102" t="s">
         <v>228</v>
       </c>
-      <c r="D53" s="91">
+      <c r="D53" s="89">
         <v>36.6</v>
       </c>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69">
-        <v>0</v>
-      </c>
-      <c r="G53" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="69"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67">
+        <v>0</v>
+      </c>
+      <c r="G53" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="67"/>
       <c r="J53" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K53" s="82">
+      <c r="K53" s="80">
         <v>0.7</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="126"/>
-      <c r="B54" s="124"/>
-      <c r="C54" s="101" t="s">
+      <c r="A54" s="123"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="D54" s="102">
+      <c r="D54" s="100">
         <v>37.32</v>
       </c>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100">
-        <v>1</v>
-      </c>
-      <c r="G54" s="100">
+      <c r="E54" s="98"/>
+      <c r="F54" s="98">
+        <v>1</v>
+      </c>
+      <c r="G54" s="98">
         <f t="shared" si="1"/>
         <v>37.32</v>
       </c>
-      <c r="H54" s="100">
+      <c r="H54" s="98">
         <f t="shared" si="2"/>
         <v>11345.28</v>
       </c>
-      <c r="I54" s="100"/>
+      <c r="I54" s="98"/>
       <c r="J54" s="46">
         <f t="shared" si="0"/>
         <v>-11345.28</v>
       </c>
-      <c r="K54" s="82">
+      <c r="K54" s="80">
         <v>0.7</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="126"/>
-      <c r="B55" s="124"/>
+      <c r="A55" s="123"/>
+      <c r="B55" s="121"/>
       <c r="C55" s="44" t="s">
         <v>229</v>
       </c>
@@ -9408,7 +9397,7 @@
         <f t="shared" si="0"/>
         <v>-19611.04</v>
       </c>
-      <c r="K55" s="82">
+      <c r="K55" s="80">
         <v>0.7</v>
       </c>
     </row>
@@ -9433,7 +9422,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A58" s="130">
+      <c r="A58" s="127">
         <v>5</v>
       </c>
       <c r="B58" s="5">
@@ -9442,7 +9431,7 @@
       <c r="C58" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D58" s="93">
+      <c r="D58" s="91">
         <v>39.700000000000003</v>
       </c>
       <c r="E58" s="42"/>
@@ -9464,7 +9453,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A59" s="131"/>
+      <c r="A59" s="128"/>
       <c r="B59" s="21">
         <v>2</v>
       </c>
@@ -9495,14 +9484,14 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A60" s="132"/>
+      <c r="A60" s="129"/>
       <c r="B60" s="4">
         <v>3</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D60" s="94">
+      <c r="D60" s="92">
         <v>39.700000000000003</v>
       </c>
       <c r="E60" s="42"/>
@@ -9570,8 +9559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C10:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9613,10 +9602,10 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="131" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="134"/>
+      <c r="B3" s="131"/>
       <c r="C3" t="s">
         <v>233</v>
       </c>
@@ -9636,8 +9625,8 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="135"/>
-      <c r="B4" s="135"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="132"/>
       <c r="C4" s="18" t="s">
         <v>249</v>
       </c>
@@ -9665,8 +9654,8 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="135"/>
-      <c r="B5" s="135"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="132"/>
       <c r="C5" t="s">
         <v>252</v>
       </c>
@@ -9685,8 +9674,8 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="135"/>
-      <c r="B6" s="135"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="18" t="s">
         <v>234</v>
       </c>
@@ -9714,8 +9703,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="135"/>
-      <c r="B7" s="135"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="18" t="s">
         <v>243</v>
       </c>
@@ -9743,8 +9732,8 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="135"/>
-      <c r="B8" s="135"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="18" t="s">
         <v>250</v>
       </c>
@@ -9772,27 +9761,27 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="135"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="95" t="s">
+      <c r="A9" s="132"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="93" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="95">
+      <c r="D9" s="93">
         <v>180</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95">
-        <v>1</v>
-      </c>
-      <c r="G9" s="95">
+      <c r="E9" s="93"/>
+      <c r="F9" s="93">
+        <v>1</v>
+      </c>
+      <c r="G9" s="93">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="H9" s="95">
+      <c r="H9" s="93">
         <f t="shared" ref="H9:H10" si="3">G9*297</f>
         <v>53460</v>
       </c>
-      <c r="I9" s="95">
+      <c r="I9" s="93">
         <v>28000</v>
       </c>
       <c r="J9">
@@ -9801,8 +9790,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="135"/>
-      <c r="B10" s="135"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="132"/>
       <c r="C10" s="25" t="s">
         <v>274</v>
       </c>
@@ -9823,8 +9812,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="135"/>
-      <c r="B11" s="135"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="132"/>
       <c r="C11" t="s">
         <v>256</v>
       </c>
@@ -9979,18 +9968,18 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="46"/>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="46" t="s">
@@ -9999,10 +9988,10 @@
       <c r="D11" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="94" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10039,7 +10028,7 @@
       </c>
       <c r="C13" s="46">
         <f>підїзд2!I46</f>
-        <v>631943.03999999969</v>
+        <v>609498.71999999974</v>
       </c>
       <c r="D13" s="46">
         <f>підїзд2!J46</f>
@@ -10047,11 +10036,11 @@
       </c>
       <c r="E13" s="46">
         <f t="shared" ref="E13:E17" si="1">D13*100/C13</f>
-        <v>95.180571970537144</v>
+        <v>98.685523080343842</v>
       </c>
       <c r="F13" s="46">
         <f t="shared" si="0"/>
-        <v>-30456.039999999688</v>
+        <v>-8011.7199999997392</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10155,7 +10144,7 @@
       <c r="B18" s="46"/>
       <c r="C18" s="46">
         <f>SUM(C12:C17)</f>
-        <v>3746640.919999999</v>
+        <v>3724196.5999999996</v>
       </c>
       <c r="D18" s="46">
         <f>SUM(D12:D17)</f>
@@ -10163,11 +10152,11 @@
       </c>
       <c r="E18" s="46">
         <f>D18*100/C18</f>
-        <v>87.895906501763207</v>
+        <v>88.425621783769429</v>
       </c>
       <c r="F18" s="46">
         <f>D18-C18</f>
-        <v>-453496.91999999899</v>
+        <v>-431052.59999999963</v>
       </c>
     </row>
   </sheetData>
@@ -10201,19 +10190,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="134" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" t="s">
